--- a/On-Call-Tracker/src/inputs/On-call_Tallies.xlsx
+++ b/On-Call-Tracker/src/inputs/On-call_Tallies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineth/repos/OCT-T9/On-Call-Tracker/src/inputs/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -284,6 +284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1592,22 +1593,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
-    <col min="3" max="3" width="4.5" style="16" customWidth="1"/>
-    <col min="4" max="7" width="4.5" style="17" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="16" customWidth="1"/>
-    <col min="9" max="12" width="4.5" style="17" customWidth="1"/>
-    <col min="13" max="13" width="4.5" style="16" customWidth="1"/>
-    <col min="14" max="17" width="4.5" style="17" customWidth="1"/>
-    <col min="18" max="18" width="4.5" style="16" customWidth="1"/>
-    <col min="19" max="23" width="4.5" style="17" customWidth="1"/>
-    <col min="24" max="24" width="8.6640625" style="18"/>
-    <col min="25" max="25" width="8.6640625" style="17"/>
-    <col min="27" max="27" width="15.33203125" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" style="1"/>
-    <col min="29" max="29" width="17.5" style="6" customWidth="1"/>
-    <col min="30" max="30" width="8.6640625" style="2"/>
+    <col min="1" max="1" customWidth="true" width="3.5"/>
+    <col min="2" max="2" customWidth="true" width="20.5"/>
+    <col min="3" max="3" customWidth="true" style="16" width="4.5"/>
+    <col min="4" max="7" customWidth="true" style="17" width="4.5"/>
+    <col min="8" max="8" customWidth="true" style="16" width="4.5"/>
+    <col min="9" max="12" customWidth="true" style="17" width="4.5"/>
+    <col min="13" max="13" customWidth="true" style="16" width="4.5"/>
+    <col min="14" max="17" customWidth="true" style="17" width="4.5"/>
+    <col min="18" max="18" customWidth="true" style="16" width="4.5"/>
+    <col min="19" max="23" customWidth="true" style="17" width="4.5"/>
+    <col min="24" max="24" style="18" width="8.6640625"/>
+    <col min="25" max="25" style="17" width="8.6640625"/>
+    <col min="27" max="27" customWidth="true" width="15.33203125"/>
+    <col min="28" max="28" style="1" width="8.6640625"/>
+    <col min="29" max="29" customWidth="true" style="6" width="17.5"/>
+    <col min="30" max="30" style="2" width="8.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1689,9 +1690,9 @@
       <c r="AA1" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="AB1"/>
-      <c r="AC1"/>
-      <c r="AD1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="2"/>
     </row>
     <row r="2" spans="1:30" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="50"/>
@@ -1762,9 +1763,9 @@
       <c r="Y2" s="54"/>
       <c r="Z2" s="58"/>
       <c r="AA2" s="60"/>
-      <c r="AB2"/>
-      <c r="AC2"/>
-      <c r="AD2"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="2"/>
     </row>
     <row r="3" spans="1:30" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
@@ -1799,11 +1800,11 @@
         <f>MAX(Y4:Y19)</f>
         <v>4</v>
       </c>
-      <c r="AC3"/>
-      <c r="AD3"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="2"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>1</v>
       </c>
       <c r="B4" s="15" t="s">
@@ -1836,11 +1837,11 @@
         <v>-1</v>
       </c>
       <c r="AB4" s="14"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="2"/>
     </row>
     <row r="5" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
@@ -1873,11 +1874,11 @@
         <v>-1</v>
       </c>
       <c r="AB5" s="14"/>
-      <c r="AC5"/>
-      <c r="AD5"/>
+      <c r="AC5" s="6"/>
+      <c r="AD5" s="2"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -1907,11 +1908,11 @@
         <v>-2</v>
       </c>
       <c r="AB6" s="14"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
+      <c r="AC6" s="6"/>
+      <c r="AD6" s="2"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>4</v>
       </c>
       <c r="B7" s="21" t="s">
@@ -1947,11 +1948,11 @@
         <v>0</v>
       </c>
       <c r="AB7" s="14"/>
-      <c r="AC7"/>
-      <c r="AD7"/>
+      <c r="AC7" s="6"/>
+      <c r="AD7" s="2"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>5</v>
       </c>
       <c r="B8" s="21" t="s">
@@ -1984,11 +1985,11 @@
         <v>-1</v>
       </c>
       <c r="AB8" s="14"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="2"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>6</v>
       </c>
       <c r="B9" s="21" t="s">
@@ -2021,11 +2022,11 @@
         <v>-1</v>
       </c>
       <c r="AB9" s="14"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
+      <c r="AC9" s="6"/>
+      <c r="AD9" s="2"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>7</v>
       </c>
       <c r="B10" s="21" t="s">
@@ -2055,11 +2056,11 @@
         <v>-2</v>
       </c>
       <c r="AB10" s="14"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
+      <c r="AC10" s="6"/>
+      <c r="AD10" s="2"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>8</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -2092,11 +2093,11 @@
         <v>-1</v>
       </c>
       <c r="AB11" s="14"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
+      <c r="AC11" s="6"/>
+      <c r="AD11" s="2"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="0">
         <v>9</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -2128,11 +2129,11 @@
         <v>-1</v>
       </c>
       <c r="AB12" s="14"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
+      <c r="AC12" s="6"/>
+      <c r="AD12" s="2"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="A13" s="0">
         <v>10</v>
       </c>
       <c r="B13" s="21" t="s">
@@ -2162,11 +2163,11 @@
         <v>-2</v>
       </c>
       <c r="AB13" s="14"/>
-      <c r="AC13"/>
-      <c r="AD13"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="2"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>11</v>
       </c>
       <c r="B14" s="21" t="s">
@@ -2198,11 +2199,11 @@
         <v>-1</v>
       </c>
       <c r="AB14" s="14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="2"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="A15" s="0">
         <v>12</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -2232,11 +2233,11 @@
         <v>-2</v>
       </c>
       <c r="AB15" s="14"/>
-      <c r="AC15"/>
-      <c r="AD15"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="2"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="A16" s="0">
         <v>13</v>
       </c>
       <c r="B16" s="21" t="s">
@@ -2268,11 +2269,11 @@
         <v>-1</v>
       </c>
       <c r="AB16" s="14"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="2"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="0">
         <v>14</v>
       </c>
       <c r="B17" s="21" t="s">
@@ -2304,11 +2305,11 @@
         <v>-1</v>
       </c>
       <c r="AB17" s="14"/>
-      <c r="AC17"/>
-      <c r="AD17"/>
+      <c r="AC17" s="6"/>
+      <c r="AD17" s="2"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A18">
+      <c r="A18" s="0">
         <v>15</v>
       </c>
       <c r="B18" s="21" t="s">
@@ -2340,11 +2341,11 @@
         <v>-1</v>
       </c>
       <c r="AB18" s="14"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
+      <c r="AC18" s="6"/>
+      <c r="AD18" s="2"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A19">
+      <c r="A19" s="0">
         <v>16</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -2377,8 +2378,8 @@
         <v>-1</v>
       </c>
       <c r="AB19" s="14"/>
-      <c r="AC19"/>
-      <c r="AD19"/>
+      <c r="AC19" s="6"/>
+      <c r="AD19" s="2"/>
     </row>
     <row r="20" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="22" t="s">
@@ -2413,11 +2414,11 @@
         <f>MAX(Y21:Y36)</f>
         <v>2</v>
       </c>
-      <c r="AC20"/>
-      <c r="AD20"/>
+      <c r="AC20" s="6"/>
+      <c r="AD20" s="2"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A21">
+      <c r="A21" s="0">
         <v>1</v>
       </c>
       <c r="B21" s="57" t="s">
@@ -2447,11 +2448,11 @@
         <v>0</v>
       </c>
       <c r="AB21" s="14"/>
-      <c r="AC21"/>
-      <c r="AD21"/>
+      <c r="AC21" s="6"/>
+      <c r="AD21" s="2"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A22">
+      <c r="A22" s="0">
         <v>2</v>
       </c>
       <c r="B22" s="57" t="s">
@@ -2481,11 +2482,11 @@
         <v>0</v>
       </c>
       <c r="AB22" s="14"/>
-      <c r="AC22"/>
-      <c r="AD22"/>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="2"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" s="0">
         <v>3</v>
       </c>
       <c r="B23" s="57" t="s">
@@ -2515,11 +2516,11 @@
         <v>0</v>
       </c>
       <c r="AB23" s="14"/>
-      <c r="AC23"/>
-      <c r="AD23"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="2"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="A24" s="0">
         <v>4</v>
       </c>
       <c r="B24" s="57" t="s">
@@ -2549,11 +2550,11 @@
         <v>0</v>
       </c>
       <c r="AB24" s="14"/>
-      <c r="AC24"/>
-      <c r="AD24"/>
+      <c r="AC24" s="6"/>
+      <c r="AD24" s="2"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="A25" s="0">
         <v>5</v>
       </c>
       <c r="B25" s="57" t="s">
@@ -2583,11 +2584,11 @@
         <v>0</v>
       </c>
       <c r="AB25" s="14"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
+      <c r="AC25" s="6"/>
+      <c r="AD25" s="2"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="A26" s="0">
         <v>6</v>
       </c>
       <c r="B26" s="57" t="s">
@@ -2617,11 +2618,11 @@
         <v>0</v>
       </c>
       <c r="AB26" s="14"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
+      <c r="AC26" s="6"/>
+      <c r="AD26" s="2"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="A27" s="0">
         <v>7</v>
       </c>
       <c r="B27" s="57" t="s">
@@ -2651,11 +2652,11 @@
         <v>0</v>
       </c>
       <c r="AB27" s="14"/>
-      <c r="AC27"/>
-      <c r="AD27"/>
+      <c r="AC27" s="6"/>
+      <c r="AD27" s="2"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="A28" s="0">
         <v>8</v>
       </c>
       <c r="B28" s="57" t="s">
@@ -2682,11 +2683,11 @@
         <v>-1</v>
       </c>
       <c r="AB28" s="14"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
+      <c r="AC28" s="6"/>
+      <c r="AD28" s="2"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A29">
+      <c r="A29" s="0">
         <v>9</v>
       </c>
       <c r="B29" s="57" t="s">
@@ -2716,11 +2717,11 @@
         <v>0</v>
       </c>
       <c r="AB29" s="14"/>
-      <c r="AC29"/>
-      <c r="AD29"/>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="2"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A30">
+      <c r="A30" s="0">
         <v>10</v>
       </c>
       <c r="B30" s="57" t="s">
@@ -2750,11 +2751,11 @@
         <v>0</v>
       </c>
       <c r="AB30" s="14"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
+      <c r="AC30" s="6"/>
+      <c r="AD30" s="2"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A31">
+      <c r="A31" s="0">
         <v>11</v>
       </c>
       <c r="B31" s="57" t="s">
@@ -2784,11 +2785,11 @@
         <v>0</v>
       </c>
       <c r="AB31" s="14"/>
-      <c r="AC31"/>
-      <c r="AD31"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="2"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A32">
+      <c r="A32" s="0">
         <v>12</v>
       </c>
       <c r="B32" s="57" t="s">
@@ -2818,11 +2819,11 @@
         <v>0</v>
       </c>
       <c r="AB32" s="14"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
+      <c r="AC32" s="6"/>
+      <c r="AD32" s="2"/>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A33">
+      <c r="A33" s="0">
         <v>13</v>
       </c>
       <c r="B33" s="57" t="s">
@@ -2849,11 +2850,11 @@
         <v>-1</v>
       </c>
       <c r="AB33" s="14"/>
-      <c r="AC33"/>
-      <c r="AD33"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="2"/>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A34">
+      <c r="A34" s="0">
         <v>14</v>
       </c>
       <c r="B34" s="57" t="s">
@@ -2883,11 +2884,11 @@
         <v>0</v>
       </c>
       <c r="AB34" s="14"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
+      <c r="AC34" s="6"/>
+      <c r="AD34" s="2"/>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A35">
+      <c r="A35" s="0">
         <v>15</v>
       </c>
       <c r="B35" s="57" t="s">
@@ -2917,11 +2918,11 @@
         <v>0</v>
       </c>
       <c r="AB35" s="14"/>
-      <c r="AC35"/>
-      <c r="AD35"/>
+      <c r="AC35" s="6"/>
+      <c r="AD35" s="2"/>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A36">
+      <c r="A36" s="0">
         <v>16</v>
       </c>
       <c r="B36" s="57" t="s">
@@ -2950,8 +2951,8 @@
         <v>0</v>
       </c>
       <c r="AB36" s="14"/>
-      <c r="AC36"/>
-      <c r="AD36"/>
+      <c r="AC36" s="6"/>
+      <c r="AD36" s="2"/>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B37" s="22" t="s">
@@ -2986,11 +2987,11 @@
         <f>MAX(Y38:Y53)</f>
         <v>2</v>
       </c>
-      <c r="AC37"/>
-      <c r="AD37"/>
+      <c r="AC37" s="6"/>
+      <c r="AD37" s="2"/>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A38">
+      <c r="A38" s="0">
         <v>1</v>
       </c>
       <c r="B38" s="57" t="s">
@@ -3020,11 +3021,11 @@
         <v>0</v>
       </c>
       <c r="AB38" s="14"/>
-      <c r="AC38"/>
-      <c r="AD38"/>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="2"/>
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A39">
+      <c r="A39" s="0">
         <v>2</v>
       </c>
       <c r="B39" s="57" t="s">
@@ -3054,11 +3055,11 @@
         <v>0</v>
       </c>
       <c r="AB39" s="14"/>
-      <c r="AC39"/>
-      <c r="AD39"/>
+      <c r="AC39" s="6"/>
+      <c r="AD39" s="2"/>
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A40">
+      <c r="A40" s="0">
         <v>3</v>
       </c>
       <c r="B40" s="57" t="s">
@@ -3087,11 +3088,11 @@
         <v>0</v>
       </c>
       <c r="AB40" s="14"/>
-      <c r="AC40"/>
-      <c r="AD40"/>
+      <c r="AC40" s="6"/>
+      <c r="AD40" s="2"/>
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A41">
+      <c r="A41" s="0">
         <v>4</v>
       </c>
       <c r="B41" s="57" t="s">
@@ -3120,11 +3121,11 @@
         <v>0</v>
       </c>
       <c r="AB41" s="14"/>
-      <c r="AC41"/>
-      <c r="AD41"/>
+      <c r="AC41" s="6"/>
+      <c r="AD41" s="2"/>
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A42">
+      <c r="A42" s="0">
         <v>5</v>
       </c>
       <c r="B42" s="57" t="s">
@@ -3154,11 +3155,11 @@
         <v>0</v>
       </c>
       <c r="AB42" s="14"/>
-      <c r="AC42"/>
-      <c r="AD42"/>
+      <c r="AC42" s="6"/>
+      <c r="AD42" s="2"/>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A43">
+      <c r="A43" s="0">
         <v>6</v>
       </c>
       <c r="B43" s="57" t="s">
@@ -3185,11 +3186,11 @@
         <v>-1</v>
       </c>
       <c r="AB43" s="14"/>
-      <c r="AC43"/>
-      <c r="AD43"/>
+      <c r="AC43" s="6"/>
+      <c r="AD43" s="2"/>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A44">
+      <c r="A44" s="0">
         <v>7</v>
       </c>
       <c r="B44" s="57" t="s">
@@ -3216,11 +3217,11 @@
         <v>-1</v>
       </c>
       <c r="AB44" s="14"/>
-      <c r="AC44"/>
-      <c r="AD44"/>
+      <c r="AC44" s="6"/>
+      <c r="AD44" s="2"/>
     </row>
     <row r="45" spans="1:30" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45">
+      <c r="A45" s="0">
         <v>8</v>
       </c>
       <c r="B45" s="57" t="s">
@@ -3247,11 +3248,11 @@
         <v>-1</v>
       </c>
       <c r="AB45" s="14"/>
-      <c r="AC45"/>
-      <c r="AD45"/>
+      <c r="AC45" s="6"/>
+      <c r="AD45" s="2"/>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A46">
+      <c r="A46" s="0">
         <v>9</v>
       </c>
       <c r="B46" s="57" t="s">
@@ -3278,11 +3279,11 @@
         <v>-1</v>
       </c>
       <c r="AB46" s="14"/>
-      <c r="AC46"/>
-      <c r="AD46"/>
+      <c r="AC46" s="6"/>
+      <c r="AD46" s="2"/>
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A47">
+      <c r="A47" s="0">
         <v>10</v>
       </c>
       <c r="B47" s="57" t="s">
@@ -3309,11 +3310,11 @@
         <v>-1</v>
       </c>
       <c r="AB47" s="14"/>
-      <c r="AC47"/>
-      <c r="AD47"/>
+      <c r="AC47" s="6"/>
+      <c r="AD47" s="2"/>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="0">
         <v>11</v>
       </c>
       <c r="B48" s="57" t="s">
@@ -3340,11 +3341,11 @@
         <v>-1</v>
       </c>
       <c r="AB48" s="14"/>
-      <c r="AC48"/>
-      <c r="AD48"/>
+      <c r="AC48" s="6"/>
+      <c r="AD48" s="2"/>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="0">
         <v>12</v>
       </c>
       <c r="B49" s="57" t="s">
@@ -3371,11 +3372,11 @@
         <v>-1</v>
       </c>
       <c r="AB49" s="14"/>
-      <c r="AC49"/>
-      <c r="AD49"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="2"/>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A50">
+      <c r="A50" s="0">
         <v>13</v>
       </c>
       <c r="B50" s="57" t="s">
@@ -3405,11 +3406,11 @@
         <v>0</v>
       </c>
       <c r="AB50" s="14"/>
-      <c r="AC50"/>
-      <c r="AD50"/>
+      <c r="AC50" s="6"/>
+      <c r="AD50" s="2"/>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A51">
+      <c r="A51" s="0">
         <v>14</v>
       </c>
       <c r="B51" s="57" t="s">
@@ -3438,11 +3439,11 @@
         <v>0</v>
       </c>
       <c r="AB51" s="14"/>
-      <c r="AC51"/>
-      <c r="AD51"/>
+      <c r="AC51" s="6"/>
+      <c r="AD51" s="2"/>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A52">
+      <c r="A52" s="0">
         <v>15</v>
       </c>
       <c r="B52" s="57" t="s">
@@ -3469,11 +3470,11 @@
         <v>-1</v>
       </c>
       <c r="AB52" s="14"/>
-      <c r="AC52"/>
-      <c r="AD52"/>
+      <c r="AC52" s="6"/>
+      <c r="AD52" s="2"/>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A53">
+      <c r="A53" s="0">
         <v>16</v>
       </c>
       <c r="B53" s="57" t="s">
@@ -3500,8 +3501,8 @@
         <v>-1</v>
       </c>
       <c r="AB53" s="14"/>
-      <c r="AC53"/>
-      <c r="AD53"/>
+      <c r="AC53" s="6"/>
+      <c r="AD53" s="2"/>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B54" s="22" t="s">
@@ -3536,11 +3537,11 @@
         <f>MAX(Y55:Y70)</f>
         <v>4</v>
       </c>
-      <c r="AC54"/>
-      <c r="AD54"/>
+      <c r="AC54" s="6"/>
+      <c r="AD54" s="2"/>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A55">
+      <c r="A55" s="0">
         <v>1</v>
       </c>
       <c r="B55" s="56" t="s">
@@ -3573,11 +3574,11 @@
         <v>-1</v>
       </c>
       <c r="AB55" s="14"/>
-      <c r="AC55"/>
-      <c r="AD55"/>
+      <c r="AC55" s="6"/>
+      <c r="AD55" s="2"/>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A56">
+      <c r="A56" s="0">
         <v>2</v>
       </c>
       <c r="B56" s="57" t="s">
@@ -3610,11 +3611,11 @@
         <v>-1</v>
       </c>
       <c r="AB56" s="14"/>
-      <c r="AC56"/>
-      <c r="AD56"/>
+      <c r="AC56" s="6"/>
+      <c r="AD56" s="2"/>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A57">
+      <c r="A57" s="0">
         <v>3</v>
       </c>
       <c r="B57" s="56" t="s">
@@ -3647,11 +3648,11 @@
         <v>-1</v>
       </c>
       <c r="AB57" s="14"/>
-      <c r="AC57"/>
-      <c r="AD57"/>
+      <c r="AC57" s="6"/>
+      <c r="AD57" s="2"/>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A58">
+      <c r="A58" s="0">
         <v>4</v>
       </c>
       <c r="B58" s="57" t="s">
@@ -3686,11 +3687,11 @@
         <v>0</v>
       </c>
       <c r="AB58" s="14"/>
-      <c r="AC58"/>
-      <c r="AD58"/>
+      <c r="AC58" s="6"/>
+      <c r="AD58" s="2"/>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A59">
+      <c r="A59" s="0">
         <v>5</v>
       </c>
       <c r="B59" s="57" t="s">
@@ -3723,11 +3724,11 @@
         <v>-1</v>
       </c>
       <c r="AB59" s="14"/>
-      <c r="AC59"/>
-      <c r="AD59"/>
+      <c r="AC59" s="6"/>
+      <c r="AD59" s="2"/>
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A60">
+      <c r="A60" s="0">
         <v>6</v>
       </c>
       <c r="B60" s="56" t="s">
@@ -3760,11 +3761,11 @@
         <v>-1</v>
       </c>
       <c r="AB60" s="14"/>
-      <c r="AC60"/>
-      <c r="AD60"/>
+      <c r="AC60" s="6"/>
+      <c r="AD60" s="2"/>
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A61">
+      <c r="A61" s="0">
         <v>7</v>
       </c>
       <c r="B61" s="57" t="s">
@@ -3799,11 +3800,11 @@
         <v>0</v>
       </c>
       <c r="AB61" s="14"/>
-      <c r="AC61"/>
-      <c r="AD61"/>
+      <c r="AC61" s="6"/>
+      <c r="AD61" s="2"/>
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A62">
+      <c r="A62" s="0">
         <v>8</v>
       </c>
       <c r="B62" s="56" t="s">
@@ -3839,11 +3840,11 @@
         <v>0</v>
       </c>
       <c r="AB62" s="14"/>
-      <c r="AC62"/>
-      <c r="AD62"/>
+      <c r="AC62" s="6"/>
+      <c r="AD62" s="2"/>
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A63">
+      <c r="A63" s="0">
         <v>9</v>
       </c>
       <c r="B63" s="56" t="s">
@@ -3878,11 +3879,11 @@
         <v>0</v>
       </c>
       <c r="AB63" s="14"/>
-      <c r="AC63"/>
-      <c r="AD63"/>
+      <c r="AC63" s="6"/>
+      <c r="AD63" s="2"/>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.2">
-      <c r="A64">
+      <c r="A64" s="0">
         <v>10</v>
       </c>
       <c r="B64" s="57" t="s">
@@ -3918,11 +3919,11 @@
         <v>0</v>
       </c>
       <c r="AB64" s="14"/>
-      <c r="AC64"/>
-      <c r="AD64"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="2"/>
     </row>
     <row r="65" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A65">
+      <c r="A65" s="0">
         <v>11</v>
       </c>
       <c r="B65" s="56" t="s">
@@ -3952,11 +3953,11 @@
         <v>-2</v>
       </c>
       <c r="AB65" s="14"/>
-      <c r="AC65"/>
-      <c r="AD65"/>
+      <c r="AC65" s="6"/>
+      <c r="AD65" s="2"/>
     </row>
     <row r="66" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A66">
+      <c r="A66" s="0">
         <v>12</v>
       </c>
       <c r="B66" s="56" t="s">
@@ -3991,11 +3992,11 @@
         <v>0</v>
       </c>
       <c r="AB66" s="14"/>
-      <c r="AC66"/>
-      <c r="AD66"/>
+      <c r="AC66" s="6"/>
+      <c r="AD66" s="2"/>
     </row>
     <row r="67" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A67">
+      <c r="A67" s="0">
         <v>13</v>
       </c>
       <c r="B67" s="57" t="s">
@@ -4030,16 +4031,17 @@
         <v>0</v>
       </c>
       <c r="AB67" s="14"/>
-      <c r="AC67"/>
-      <c r="AD67"/>
+      <c r="AC67" s="6"/>
+      <c r="AD67" s="2"/>
     </row>
     <row r="68" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A68">
+      <c r="A68" s="0">
         <v>14</v>
       </c>
       <c r="B68" s="57" t="s">
         <v>77</v>
       </c>
+      <c r="H68" s="16"/>
       <c r="J68" s="17">
         <v>1</v>
       </c>
@@ -4050,28 +4052,28 @@
         <v>1</v>
       </c>
       <c r="W68" s="16"/>
-      <c r="X68" s="18">
+      <c r="X68" s="18" t="n">
         <f>SUM(C68:W68)</f>
-        <v>3</v>
-      </c>
-      <c r="Y68" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="Y68" s="19" t="n">
         <f>SUM(C68:W68)</f>
-        <v>3</v>
-      </c>
-      <c r="Z68" s="62">
+        <v>3.0</v>
+      </c>
+      <c r="Z68" s="62" t="n">
         <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AA68" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="AA68" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>-1</v>
+        <v>-1.0</v>
       </c>
       <c r="AB68" s="14"/>
-      <c r="AC68"/>
-      <c r="AD68"/>
+      <c r="AC68" s="6"/>
+      <c r="AD68" s="2"/>
     </row>
     <row r="69" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A69">
+      <c r="A69" s="0">
         <v>15</v>
       </c>
       <c r="B69" s="56" t="s">
@@ -4106,11 +4108,11 @@
         <v>0</v>
       </c>
       <c r="AB69" s="14"/>
-      <c r="AC69"/>
-      <c r="AD69"/>
+      <c r="AC69" s="6"/>
+      <c r="AD69" s="2"/>
     </row>
     <row r="70" spans="1:42" x14ac:dyDescent="0.2">
-      <c r="A70">
+      <c r="A70" s="0">
         <v>16</v>
       </c>
       <c r="B70" s="57" t="s">
@@ -4145,8 +4147,8 @@
         <v>0</v>
       </c>
       <c r="AB70" s="14"/>
-      <c r="AC70"/>
-      <c r="AD70"/>
+      <c r="AC70" s="6"/>
+      <c r="AD70" s="2"/>
     </row>
     <row r="71" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A71" s="26"/>
@@ -4174,24 +4176,24 @@
       <c r="U71" s="29"/>
       <c r="V71" s="29"/>
       <c r="W71" s="29"/>
-      <c r="X71" s="30">
+      <c r="X71" s="30" t="n">
         <f>SUM(X4:X70)</f>
-        <v>154</v>
-      </c>
-      <c r="Y71" s="31">
+        <v>154.0</v>
+      </c>
+      <c r="Y71" s="31" t="n">
         <f>SUM(Y4:Y70)</f>
-        <v>154</v>
-      </c>
-      <c r="AB71"/>
+        <v>154.0</v>
+      </c>
+      <c r="AB71" s="1"/>
     </row>
     <row r="72" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A72" s="26"/>
       <c r="B72" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="33">
+      <c r="C72" s="33" t="n">
         <f>SUM(X4:X19)</f>
-        <v>45</v>
+        <v>45.0</v>
       </c>
       <c r="D72" s="29"/>
       <c r="E72" s="29"/>
@@ -4215,16 +4217,16 @@
       <c r="W72" s="29"/>
       <c r="X72" s="34"/>
       <c r="Y72" s="26"/>
-      <c r="AB72"/>
+      <c r="AB72" s="1"/>
     </row>
     <row r="73" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A73" s="26"/>
       <c r="B73" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="33">
+      <c r="C73" s="33" t="n">
         <f>SUM(X21:X36)</f>
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="D73" s="29"/>
       <c r="E73" s="29"/>
@@ -4248,16 +4250,16 @@
       <c r="W73" s="29"/>
       <c r="X73" s="34"/>
       <c r="Y73" s="26"/>
-      <c r="AB73"/>
+      <c r="AB73" s="1"/>
     </row>
     <row r="74" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A74" s="26"/>
       <c r="B74" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C74" s="33">
+      <c r="C74" s="33" t="n">
         <f>SUM(X38:X53)</f>
-        <v>23</v>
+        <v>23.0</v>
       </c>
       <c r="D74" s="29"/>
       <c r="E74" s="29"/>
@@ -4281,16 +4283,16 @@
       <c r="W74" s="29"/>
       <c r="X74" s="34"/>
       <c r="Y74" s="26"/>
-      <c r="AB74"/>
+      <c r="AB74" s="1"/>
     </row>
     <row r="75" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A75" s="26"/>
       <c r="B75" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C75" s="35">
+      <c r="C75" s="35" t="n">
         <f>SUM(X55:X70)</f>
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="D75" s="29"/>
       <c r="E75" s="29"/>
@@ -4314,16 +4316,16 @@
       <c r="W75" s="29"/>
       <c r="X75" s="34"/>
       <c r="Y75" s="26"/>
-      <c r="AB75"/>
+      <c r="AB75" s="1"/>
     </row>
     <row r="76" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A76" s="26"/>
       <c r="B76" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C76" s="37">
+      <c r="C76" s="37" t="n">
         <f>SUM(C72:C75)</f>
-        <v>154</v>
+        <v>154.0</v>
       </c>
       <c r="D76" s="29"/>
       <c r="E76" s="29"/>
@@ -4347,7 +4349,7 @@
       <c r="W76" s="29"/>
       <c r="X76" s="34"/>
       <c r="Y76" s="26"/>
-      <c r="AB76"/>
+      <c r="AB76" s="1"/>
       <c r="AF76" s="26"/>
     </row>
     <row r="77" spans="1:42" x14ac:dyDescent="0.2">
@@ -4375,7 +4377,7 @@
       <c r="X77" s="39"/>
       <c r="Y77" s="38"/>
       <c r="Z77" s="40"/>
-      <c r="AB77"/>
+      <c r="AB77" s="1"/>
       <c r="AC77" s="41"/>
       <c r="AD77" s="42"/>
       <c r="AE77" s="26"/>
@@ -4416,7 +4418,7 @@
       <c r="X78" s="39"/>
       <c r="Y78" s="38"/>
       <c r="Z78" s="40"/>
-      <c r="AB78"/>
+      <c r="AB78" s="1"/>
       <c r="AC78" s="41"/>
       <c r="AD78" s="42"/>
       <c r="AE78" s="26"/>
@@ -4457,7 +4459,7 @@
       <c r="X79" s="39"/>
       <c r="Y79" s="38"/>
       <c r="Z79" s="40"/>
-      <c r="AB79"/>
+      <c r="AB79" s="1"/>
       <c r="AC79" s="41"/>
       <c r="AD79" s="42"/>
       <c r="AE79" s="26"/>
@@ -4498,7 +4500,7 @@
       <c r="X80" s="39"/>
       <c r="Y80" s="38"/>
       <c r="Z80" s="40"/>
-      <c r="AB80"/>
+      <c r="AB80" s="1"/>
       <c r="AC80" s="41"/>
       <c r="AD80" s="42"/>
       <c r="AE80" s="26"/>
@@ -4539,7 +4541,7 @@
       <c r="X81" s="39"/>
       <c r="Y81" s="38"/>
       <c r="Z81" s="40"/>
-      <c r="AB81"/>
+      <c r="AB81" s="1"/>
       <c r="AC81" s="41"/>
       <c r="AD81" s="42"/>
       <c r="AE81" s="26"/>
@@ -4580,7 +4582,7 @@
       <c r="X82" s="39"/>
       <c r="Y82" s="38"/>
       <c r="Z82" s="40"/>
-      <c r="AB82"/>
+      <c r="AB82" s="1"/>
       <c r="AC82" s="41"/>
       <c r="AD82" s="42"/>
       <c r="AE82" s="26"/>
@@ -4621,7 +4623,7 @@
       <c r="X83" s="39"/>
       <c r="Y83" s="38"/>
       <c r="Z83" s="40"/>
-      <c r="AB83"/>
+      <c r="AB83" s="1"/>
       <c r="AC83" s="41"/>
       <c r="AD83" s="42"/>
       <c r="AE83" s="26"/>
@@ -4662,7 +4664,7 @@
       <c r="X84" s="39"/>
       <c r="Y84" s="38"/>
       <c r="Z84" s="40"/>
-      <c r="AB84"/>
+      <c r="AB84" s="1"/>
       <c r="AC84" s="41"/>
       <c r="AD84" s="42"/>
       <c r="AE84" s="26"/>
@@ -4703,7 +4705,7 @@
       <c r="X85" s="39"/>
       <c r="Y85" s="38"/>
       <c r="Z85" s="40"/>
-      <c r="AB85"/>
+      <c r="AB85" s="1"/>
       <c r="AC85" s="41"/>
       <c r="AD85" s="42"/>
       <c r="AE85" s="26"/>
@@ -4744,7 +4746,7 @@
       <c r="X86" s="39"/>
       <c r="Y86" s="38"/>
       <c r="Z86" s="40"/>
-      <c r="AB86"/>
+      <c r="AB86" s="1"/>
       <c r="AC86" s="41"/>
       <c r="AD86" s="42"/>
       <c r="AE86" s="26"/>
@@ -4785,7 +4787,7 @@
       <c r="X87" s="39"/>
       <c r="Y87" s="38"/>
       <c r="Z87" s="40"/>
-      <c r="AB87"/>
+      <c r="AB87" s="1"/>
       <c r="AC87" s="41"/>
       <c r="AD87" s="42"/>
       <c r="AE87" s="26"/>
@@ -4826,7 +4828,7 @@
       <c r="X88" s="39"/>
       <c r="Y88" s="38"/>
       <c r="Z88" s="40"/>
-      <c r="AB88"/>
+      <c r="AB88" s="1"/>
       <c r="AC88" s="41"/>
       <c r="AD88" s="42"/>
       <c r="AE88" s="26"/>
@@ -4867,7 +4869,7 @@
       <c r="X89" s="39"/>
       <c r="Y89" s="38"/>
       <c r="Z89" s="40"/>
-      <c r="AB89"/>
+      <c r="AB89" s="1"/>
       <c r="AC89" s="41"/>
       <c r="AD89" s="42"/>
       <c r="AE89" s="26"/>
@@ -4908,7 +4910,7 @@
       <c r="X90" s="39"/>
       <c r="Y90" s="38"/>
       <c r="Z90" s="40"/>
-      <c r="AB90"/>
+      <c r="AB90" s="1"/>
       <c r="AC90" s="41"/>
       <c r="AD90" s="42"/>
       <c r="AE90" s="26"/>
@@ -4949,7 +4951,7 @@
       <c r="X91" s="39"/>
       <c r="Y91" s="38"/>
       <c r="Z91" s="40"/>
-      <c r="AB91"/>
+      <c r="AB91" s="1"/>
       <c r="AC91" s="41"/>
       <c r="AD91" s="42"/>
       <c r="AE91" s="26"/>
@@ -4990,7 +4992,7 @@
       <c r="X92" s="39"/>
       <c r="Y92" s="38"/>
       <c r="Z92" s="40"/>
-      <c r="AB92"/>
+      <c r="AB92" s="1"/>
       <c r="AC92" s="41"/>
       <c r="AD92" s="42"/>
       <c r="AE92" s="26"/>
@@ -5031,7 +5033,7 @@
       <c r="X93" s="39"/>
       <c r="Y93" s="38"/>
       <c r="Z93" s="40"/>
-      <c r="AB93"/>
+      <c r="AB93" s="1"/>
       <c r="AC93" s="41"/>
       <c r="AD93" s="42"/>
       <c r="AE93" s="26"/>
@@ -5072,7 +5074,7 @@
       <c r="X94" s="39"/>
       <c r="Y94" s="38"/>
       <c r="Z94" s="40"/>
-      <c r="AB94"/>
+      <c r="AB94" s="1"/>
       <c r="AC94" s="41"/>
       <c r="AD94" s="42"/>
       <c r="AE94" s="26"/>
@@ -5113,7 +5115,7 @@
       <c r="X95" s="39"/>
       <c r="Y95" s="38"/>
       <c r="Z95" s="40"/>
-      <c r="AB95"/>
+      <c r="AB95" s="1"/>
       <c r="AC95" s="41"/>
       <c r="AD95" s="42"/>
       <c r="AE95" s="26"/>
@@ -5154,7 +5156,7 @@
       <c r="X96" s="39"/>
       <c r="Y96" s="38"/>
       <c r="Z96" s="40"/>
-      <c r="AB96"/>
+      <c r="AB96" s="1"/>
       <c r="AC96" s="41"/>
       <c r="AD96" s="42"/>
       <c r="AE96" s="26"/>
@@ -5195,7 +5197,7 @@
       <c r="X97" s="39"/>
       <c r="Y97" s="38"/>
       <c r="Z97" s="40"/>
-      <c r="AB97"/>
+      <c r="AB97" s="1"/>
       <c r="AC97" s="41"/>
       <c r="AD97" s="42"/>
       <c r="AE97" s="26"/>
@@ -5236,7 +5238,7 @@
       <c r="X98" s="39"/>
       <c r="Y98" s="38"/>
       <c r="Z98" s="40"/>
-      <c r="AB98"/>
+      <c r="AB98" s="1"/>
       <c r="AC98" s="41"/>
       <c r="AD98" s="42"/>
       <c r="AE98" s="26"/>
@@ -5277,7 +5279,7 @@
       <c r="X99" s="39"/>
       <c r="Y99" s="38"/>
       <c r="Z99" s="40"/>
-      <c r="AB99"/>
+      <c r="AB99" s="1"/>
       <c r="AC99" s="41"/>
       <c r="AD99" s="42"/>
       <c r="AE99" s="26"/>
@@ -5318,7 +5320,7 @@
       <c r="X100" s="39"/>
       <c r="Y100" s="38"/>
       <c r="Z100" s="40"/>
-      <c r="AB100"/>
+      <c r="AB100" s="1"/>
       <c r="AC100" s="41"/>
       <c r="AD100" s="42"/>
       <c r="AE100" s="26"/>
@@ -5359,7 +5361,7 @@
       <c r="X101" s="39"/>
       <c r="Y101" s="38"/>
       <c r="Z101" s="40"/>
-      <c r="AB101"/>
+      <c r="AB101" s="1"/>
       <c r="AC101" s="41"/>
       <c r="AD101" s="42"/>
       <c r="AE101" s="26"/>
@@ -5400,7 +5402,7 @@
       <c r="X102" s="39"/>
       <c r="Y102" s="38"/>
       <c r="Z102" s="40"/>
-      <c r="AB102"/>
+      <c r="AB102" s="1"/>
       <c r="AC102" s="41"/>
       <c r="AD102" s="42"/>
       <c r="AE102" s="26"/>
@@ -5441,7 +5443,7 @@
       <c r="X103" s="39"/>
       <c r="Y103" s="38"/>
       <c r="Z103" s="40"/>
-      <c r="AB103"/>
+      <c r="AB103" s="1"/>
       <c r="AC103" s="41"/>
       <c r="AD103" s="42"/>
       <c r="AE103" s="26"/>
@@ -5482,7 +5484,7 @@
       <c r="X104" s="39"/>
       <c r="Y104" s="38"/>
       <c r="Z104" s="40"/>
-      <c r="AB104"/>
+      <c r="AB104" s="1"/>
       <c r="AC104" s="41"/>
       <c r="AD104" s="42"/>
       <c r="AE104" s="26"/>
@@ -5523,7 +5525,7 @@
       <c r="X105" s="39"/>
       <c r="Y105" s="38"/>
       <c r="Z105" s="40"/>
-      <c r="AB105"/>
+      <c r="AB105" s="1"/>
       <c r="AC105" s="41"/>
       <c r="AD105" s="42"/>
       <c r="AE105" s="26"/>
@@ -5564,7 +5566,7 @@
       <c r="X106" s="39"/>
       <c r="Y106" s="38"/>
       <c r="Z106" s="40"/>
-      <c r="AB106"/>
+      <c r="AB106" s="1"/>
       <c r="AC106" s="41"/>
       <c r="AD106" s="42"/>
       <c r="AE106" s="26"/>
@@ -5605,7 +5607,7 @@
       <c r="X107" s="39"/>
       <c r="Y107" s="38"/>
       <c r="Z107" s="40"/>
-      <c r="AB107"/>
+      <c r="AB107" s="1"/>
       <c r="AC107" s="41"/>
       <c r="AD107" s="42"/>
       <c r="AE107" s="26"/>
@@ -5646,7 +5648,7 @@
       <c r="X108" s="39"/>
       <c r="Y108" s="38"/>
       <c r="Z108" s="40"/>
-      <c r="AB108"/>
+      <c r="AB108" s="1"/>
       <c r="AC108" s="41"/>
       <c r="AD108" s="42"/>
       <c r="AE108" s="26"/>
@@ -5687,7 +5689,7 @@
       <c r="X109" s="39"/>
       <c r="Y109" s="38"/>
       <c r="Z109" s="40"/>
-      <c r="AB109"/>
+      <c r="AB109" s="1"/>
       <c r="AC109" s="41"/>
       <c r="AD109" s="42"/>
       <c r="AE109" s="26"/>
@@ -5728,7 +5730,7 @@
       <c r="X110" s="39"/>
       <c r="Y110" s="38"/>
       <c r="Z110" s="40"/>
-      <c r="AB110"/>
+      <c r="AB110" s="1"/>
       <c r="AC110" s="41"/>
       <c r="AD110" s="42"/>
       <c r="AE110" s="26"/>
@@ -5769,7 +5771,7 @@
       <c r="X111" s="39"/>
       <c r="Y111" s="38"/>
       <c r="Z111" s="40"/>
-      <c r="AB111"/>
+      <c r="AB111" s="1"/>
       <c r="AC111" s="41"/>
       <c r="AD111" s="42"/>
       <c r="AE111" s="26"/>
@@ -5810,7 +5812,7 @@
       <c r="X112" s="39"/>
       <c r="Y112" s="38"/>
       <c r="Z112" s="40"/>
-      <c r="AB112"/>
+      <c r="AB112" s="1"/>
       <c r="AC112" s="41"/>
       <c r="AD112" s="42"/>
       <c r="AE112" s="26"/>
@@ -5851,7 +5853,7 @@
       <c r="X113" s="39"/>
       <c r="Y113" s="38"/>
       <c r="Z113" s="40"/>
-      <c r="AB113"/>
+      <c r="AB113" s="1"/>
       <c r="AC113" s="41"/>
       <c r="AD113" s="42"/>
       <c r="AE113" s="26"/>
@@ -5892,7 +5894,7 @@
       <c r="X114" s="39"/>
       <c r="Y114" s="38"/>
       <c r="Z114" s="40"/>
-      <c r="AB114"/>
+      <c r="AB114" s="1"/>
       <c r="AC114" s="41"/>
       <c r="AD114" s="42"/>
       <c r="AE114" s="26"/>
@@ -5933,7 +5935,7 @@
       <c r="X115" s="39"/>
       <c r="Y115" s="38"/>
       <c r="Z115" s="40"/>
-      <c r="AB115"/>
+      <c r="AB115" s="1"/>
       <c r="AC115" s="41"/>
       <c r="AD115" s="42"/>
       <c r="AE115" s="26"/>
@@ -5974,7 +5976,7 @@
       <c r="X116" s="39"/>
       <c r="Y116" s="38"/>
       <c r="Z116" s="40"/>
-      <c r="AB116"/>
+      <c r="AB116" s="1"/>
       <c r="AC116" s="41"/>
       <c r="AD116" s="42"/>
       <c r="AE116" s="26"/>
@@ -6015,7 +6017,7 @@
       <c r="X117" s="39"/>
       <c r="Y117" s="38"/>
       <c r="Z117" s="40"/>
-      <c r="AB117"/>
+      <c r="AB117" s="1"/>
       <c r="AC117" s="41"/>
       <c r="AD117" s="42"/>
       <c r="AE117" s="26"/>
@@ -6056,7 +6058,7 @@
       <c r="X118" s="39"/>
       <c r="Y118" s="38"/>
       <c r="Z118" s="40"/>
-      <c r="AB118"/>
+      <c r="AB118" s="1"/>
       <c r="AC118" s="41"/>
       <c r="AD118" s="42"/>
       <c r="AE118" s="26"/>
@@ -6097,7 +6099,7 @@
       <c r="X119" s="39"/>
       <c r="Y119" s="38"/>
       <c r="Z119" s="40"/>
-      <c r="AB119"/>
+      <c r="AB119" s="1"/>
       <c r="AC119" s="41"/>
       <c r="AD119" s="42"/>
       <c r="AE119" s="26"/>
@@ -6138,7 +6140,7 @@
       <c r="X120" s="39"/>
       <c r="Y120" s="38"/>
       <c r="Z120" s="40"/>
-      <c r="AB120"/>
+      <c r="AB120" s="1"/>
       <c r="AC120" s="41"/>
       <c r="AD120" s="42"/>
       <c r="AE120" s="26"/>
@@ -6179,7 +6181,7 @@
       <c r="X121" s="39"/>
       <c r="Y121" s="38"/>
       <c r="Z121" s="40"/>
-      <c r="AB121"/>
+      <c r="AB121" s="1"/>
       <c r="AC121" s="41"/>
       <c r="AD121" s="42"/>
       <c r="AE121" s="26"/>
@@ -6220,7 +6222,7 @@
       <c r="X122" s="44"/>
       <c r="Y122" s="43"/>
       <c r="Z122" s="26"/>
-      <c r="AB122"/>
+      <c r="AB122" s="1"/>
       <c r="AC122" s="41"/>
       <c r="AD122" s="42"/>
       <c r="AE122" s="26"/>
@@ -6261,7 +6263,7 @@
       <c r="X123" s="46"/>
       <c r="Y123" s="45"/>
       <c r="Z123" s="26"/>
-      <c r="AB123"/>
+      <c r="AB123" s="1"/>
       <c r="AC123" s="41"/>
       <c r="AD123" s="42"/>
       <c r="AE123" s="26"/>
@@ -6302,7 +6304,7 @@
       <c r="X124" s="46"/>
       <c r="Y124" s="45"/>
       <c r="Z124" s="26"/>
-      <c r="AB124"/>
+      <c r="AB124" s="1"/>
       <c r="AC124" s="41"/>
       <c r="AD124" s="42"/>
       <c r="AE124" s="26"/>
@@ -6343,7 +6345,7 @@
       <c r="X125" s="46"/>
       <c r="Y125" s="45"/>
       <c r="Z125" s="26"/>
-      <c r="AB125"/>
+      <c r="AB125" s="1"/>
       <c r="AC125" s="41"/>
       <c r="AD125" s="42"/>
       <c r="AE125" s="26"/>
@@ -6384,7 +6386,7 @@
       <c r="X126" s="46"/>
       <c r="Y126" s="45"/>
       <c r="Z126" s="26"/>
-      <c r="AB126"/>
+      <c r="AB126" s="1"/>
       <c r="AC126" s="41"/>
       <c r="AD126" s="42"/>
       <c r="AE126" s="26"/>
@@ -6425,7 +6427,7 @@
       <c r="X127" s="46"/>
       <c r="Y127" s="45"/>
       <c r="Z127" s="26"/>
-      <c r="AB127"/>
+      <c r="AB127" s="1"/>
       <c r="AC127" s="41"/>
       <c r="AD127" s="42"/>
       <c r="AE127" s="26"/>
@@ -6466,7 +6468,7 @@
       <c r="X128" s="46"/>
       <c r="Y128" s="45"/>
       <c r="Z128" s="26"/>
-      <c r="AB128"/>
+      <c r="AB128" s="1"/>
       <c r="AC128" s="41"/>
       <c r="AD128" s="42"/>
       <c r="AE128" s="26"/>
@@ -6507,7 +6509,7 @@
       <c r="X129" s="46"/>
       <c r="Y129" s="45"/>
       <c r="Z129" s="26"/>
-      <c r="AB129"/>
+      <c r="AB129" s="1"/>
       <c r="AC129" s="41"/>
       <c r="AD129" s="42"/>
       <c r="AE129" s="26"/>
@@ -6548,7 +6550,7 @@
       <c r="X130" s="46"/>
       <c r="Y130" s="45"/>
       <c r="Z130" s="26"/>
-      <c r="AB130"/>
+      <c r="AB130" s="1"/>
       <c r="AC130" s="41"/>
       <c r="AD130" s="42"/>
       <c r="AE130" s="26"/>
@@ -6589,7 +6591,7 @@
       <c r="X131" s="46"/>
       <c r="Y131" s="45"/>
       <c r="Z131" s="26"/>
-      <c r="AB131"/>
+      <c r="AB131" s="1"/>
       <c r="AC131" s="41"/>
       <c r="AD131" s="42"/>
       <c r="AE131" s="26"/>
@@ -6630,7 +6632,7 @@
       <c r="X132" s="46"/>
       <c r="Y132" s="45"/>
       <c r="Z132" s="26"/>
-      <c r="AB132"/>
+      <c r="AB132" s="1"/>
       <c r="AC132" s="41"/>
       <c r="AD132" s="42"/>
       <c r="AE132" s="26"/>
@@ -6671,7 +6673,7 @@
       <c r="X133" s="46"/>
       <c r="Y133" s="45"/>
       <c r="Z133" s="26"/>
-      <c r="AB133"/>
+      <c r="AB133" s="1"/>
       <c r="AC133" s="41"/>
       <c r="AD133" s="42"/>
       <c r="AE133" s="26"/>
@@ -6712,7 +6714,7 @@
       <c r="X134" s="46"/>
       <c r="Y134" s="45"/>
       <c r="Z134" s="26"/>
-      <c r="AB134"/>
+      <c r="AB134" s="1"/>
       <c r="AC134" s="41"/>
       <c r="AD134" s="42"/>
       <c r="AE134" s="26"/>
@@ -6753,7 +6755,7 @@
       <c r="X135" s="46"/>
       <c r="Y135" s="45"/>
       <c r="Z135" s="26"/>
-      <c r="AB135"/>
+      <c r="AB135" s="1"/>
       <c r="AC135" s="41"/>
       <c r="AD135" s="42"/>
       <c r="AE135" s="26"/>
@@ -6794,7 +6796,7 @@
       <c r="X136" s="46"/>
       <c r="Y136" s="45"/>
       <c r="Z136" s="26"/>
-      <c r="AB136"/>
+      <c r="AB136" s="1"/>
       <c r="AC136" s="41"/>
       <c r="AD136" s="42"/>
       <c r="AE136" s="26"/>
@@ -6810,124 +6812,124 @@
       <c r="AP136" s="26"/>
     </row>
     <row r="137" spans="3:42" x14ac:dyDescent="0.2">
-      <c r="AB137"/>
+      <c r="AB137" s="1"/>
     </row>
     <row r="138" spans="3:42" x14ac:dyDescent="0.2">
-      <c r="AB138"/>
+      <c r="AB138" s="1"/>
     </row>
     <row r="139" spans="3:42" x14ac:dyDescent="0.2">
-      <c r="AB139"/>
+      <c r="AB139" s="1"/>
     </row>
     <row r="140" spans="3:42" x14ac:dyDescent="0.2">
-      <c r="AB140"/>
+      <c r="AB140" s="1"/>
     </row>
     <row r="141" spans="3:42" x14ac:dyDescent="0.2">
-      <c r="AB141"/>
+      <c r="AB141" s="1"/>
     </row>
     <row r="142" spans="3:42" x14ac:dyDescent="0.2">
-      <c r="AB142"/>
+      <c r="AB142" s="1"/>
     </row>
     <row r="143" spans="3:42" x14ac:dyDescent="0.2">
-      <c r="AB143"/>
+      <c r="AB143" s="1"/>
     </row>
     <row r="144" spans="3:42" x14ac:dyDescent="0.2">
-      <c r="AB144"/>
+      <c r="AB144" s="1"/>
     </row>
     <row r="145" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB145"/>
+      <c r="AB145" s="1"/>
     </row>
     <row r="146" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB146"/>
+      <c r="AB146" s="1"/>
     </row>
     <row r="147" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB147"/>
+      <c r="AB147" s="1"/>
     </row>
     <row r="148" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB148"/>
+      <c r="AB148" s="1"/>
     </row>
     <row r="149" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB149"/>
+      <c r="AB149" s="1"/>
     </row>
     <row r="150" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB150"/>
+      <c r="AB150" s="1"/>
     </row>
     <row r="151" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB151"/>
+      <c r="AB151" s="1"/>
     </row>
     <row r="152" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB152"/>
+      <c r="AB152" s="1"/>
     </row>
     <row r="153" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB153"/>
+      <c r="AB153" s="1"/>
     </row>
     <row r="154" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB154"/>
+      <c r="AB154" s="1"/>
     </row>
     <row r="155" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB155"/>
+      <c r="AB155" s="1"/>
     </row>
     <row r="156" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB156"/>
+      <c r="AB156" s="1"/>
     </row>
     <row r="157" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB157"/>
+      <c r="AB157" s="1"/>
     </row>
     <row r="158" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB158"/>
+      <c r="AB158" s="1"/>
     </row>
     <row r="159" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB159"/>
+      <c r="AB159" s="1"/>
     </row>
     <row r="160" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB160"/>
+      <c r="AB160" s="1"/>
     </row>
     <row r="161" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB161"/>
+      <c r="AB161" s="1"/>
     </row>
     <row r="162" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB162"/>
+      <c r="AB162" s="1"/>
     </row>
     <row r="163" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB163"/>
+      <c r="AB163" s="1"/>
     </row>
     <row r="164" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB164"/>
+      <c r="AB164" s="1"/>
     </row>
     <row r="165" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB165"/>
+      <c r="AB165" s="1"/>
     </row>
     <row r="166" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB166"/>
+      <c r="AB166" s="1"/>
     </row>
     <row r="167" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB167"/>
+      <c r="AB167" s="1"/>
     </row>
     <row r="168" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB168"/>
+      <c r="AB168" s="1"/>
     </row>
     <row r="169" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB169"/>
+      <c r="AB169" s="1"/>
     </row>
     <row r="170" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB170"/>
+      <c r="AB170" s="1"/>
     </row>
     <row r="171" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB171"/>
+      <c r="AB171" s="1"/>
     </row>
     <row r="172" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB172"/>
+      <c r="AB172" s="1"/>
     </row>
     <row r="173" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB173"/>
+      <c r="AB173" s="1"/>
     </row>
     <row r="174" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB174"/>
+      <c r="AB174" s="1"/>
     </row>
     <row r="175" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB175"/>
+      <c r="AB175" s="1"/>
     </row>
     <row r="176" spans="28:28" x14ac:dyDescent="0.2">
-      <c r="AB176"/>
+      <c r="AB176" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/On-Call-Tracker/src/inputs/On-call_Tallies.xlsx
+++ b/On-Call-Tracker/src/inputs/On-call_Tallies.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26006"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineth/repos/OCT-T9/On-Call-Tracker/src/inputs/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -284,6 +284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="16">
     <font>
       <sz val="11"/>
@@ -1114,7 +1115,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD136"/>
+  <dimension ref="A1:AB136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="Y51" activePane="bottomLeft" state="frozen"/>
@@ -1123,22 +1124,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="4.42578125" style="15" customWidth="1"/>
-    <col min="4" max="7" width="4.42578125" style="16" customWidth="1"/>
-    <col min="8" max="8" width="4.42578125" style="15" customWidth="1"/>
-    <col min="9" max="12" width="4.42578125" style="16" customWidth="1"/>
-    <col min="13" max="13" width="4.42578125" style="15" customWidth="1"/>
-    <col min="14" max="17" width="4.42578125" style="16" customWidth="1"/>
-    <col min="18" max="18" width="4.42578125" style="15" customWidth="1"/>
-    <col min="19" max="23" width="4.42578125" style="16" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" style="17"/>
-    <col min="25" max="25" width="8.7109375" style="16"/>
-    <col min="27" max="27" width="15.28515625" customWidth="1"/>
-    <col min="28" max="28" width="8.7109375" style="1"/>
-    <col min="29" max="29" width="17.42578125" style="6" customWidth="1"/>
-    <col min="30" max="30" width="8.7109375" style="2"/>
+    <col min="1" max="1" customWidth="true" width="3.42578125"/>
+    <col min="2" max="2" customWidth="true" width="20.42578125"/>
+    <col min="3" max="3" customWidth="true" style="15" width="4.42578125"/>
+    <col min="4" max="7" customWidth="true" style="16" width="4.42578125"/>
+    <col min="8" max="8" customWidth="true" style="15" width="4.42578125"/>
+    <col min="9" max="12" customWidth="true" style="16" width="4.42578125"/>
+    <col min="13" max="13" customWidth="true" style="15" width="4.42578125"/>
+    <col min="14" max="17" customWidth="true" style="16" width="4.42578125"/>
+    <col min="18" max="18" customWidth="true" style="15" width="4.42578125"/>
+    <col min="19" max="23" customWidth="true" style="16" width="4.42578125"/>
+    <col min="24" max="24" style="17" width="8.7109375"/>
+    <col min="25" max="25" style="16" width="8.7109375"/>
+    <col min="27" max="27" customWidth="true" width="15.28515625"/>
+    <col min="28" max="28" style="1" width="8.7109375"/>
+    <col min="29" max="29" customWidth="true" style="6" width="17.42578125"/>
+    <col min="30" max="30" style="2" width="8.7109375"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="14.45" customHeight="1">
@@ -1326,7 +1327,7 @@
       </c>
     </row>
     <row r="4" spans="1:28">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -1358,10 +1359,10 @@
         <f>Y4-$AB$3</f>
         <v>-1</v>
       </c>
-      <c r="AB4"/>
+      <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A5">
+      <c r="A5" s="0">
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -1393,15 +1394,18 @@
         <f t="shared" ref="AA5:AA19" si="0">Y5-$AB$3</f>
         <v>-1</v>
       </c>
-      <c r="AB5"/>
+      <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28">
-      <c r="A6">
+      <c r="A6" s="0">
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>14</v>
       </c>
+      <c r="C6" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="D6" s="16">
         <v>1</v>
       </c>
@@ -1409,26 +1413,26 @@
         <v>1</v>
       </c>
       <c r="W6" s="15"/>
-      <c r="X6" s="17">
+      <c r="X6" s="17" t="n">
         <f>SUM(C6:W6)</f>
-        <v>2</v>
-      </c>
-      <c r="Y6" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y6" s="18" t="n">
         <f>SUM(C6:W6)</f>
-        <v>2</v>
-      </c>
-      <c r="Z6" s="41">
+        <v>3.0</v>
+      </c>
+      <c r="Z6" s="41" t="n">
         <f>AB3-X6</f>
-        <v>2</v>
-      </c>
-      <c r="AA6" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AA6" s="19" t="n">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="AB6"/>
+        <v>-1.0</v>
+      </c>
+      <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28">
-      <c r="A7">
+      <c r="A7" s="0">
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
@@ -1463,15 +1467,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB7"/>
+      <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28">
-      <c r="A8">
+      <c r="A8" s="0">
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>16</v>
       </c>
+      <c r="C8" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="D8" s="16">
         <v>1</v>
       </c>
@@ -1482,26 +1489,26 @@
         <v>1</v>
       </c>
       <c r="W8" s="15"/>
-      <c r="X8" s="17">
+      <c r="X8" s="17" t="n">
         <f>SUM(C8:W8)</f>
-        <v>3</v>
-      </c>
-      <c r="Y8" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y8" s="18" t="n">
         <f>SUM(C8:W8)</f>
-        <v>3</v>
-      </c>
-      <c r="Z8" s="41">
+        <v>4.0</v>
+      </c>
+      <c r="Z8" s="41" t="n">
         <f>AB3-X8</f>
-        <v>1</v>
-      </c>
-      <c r="AA8" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA8" s="19" t="n">
         <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="AB8"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9">
+      <c r="A9" s="0">
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
@@ -1533,15 +1540,18 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="AB9"/>
+      <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="A10">
+      <c r="A10" s="0">
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
+      <c r="C10" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="H10" s="15">
         <v>1</v>
       </c>
@@ -1549,26 +1559,26 @@
         <v>1</v>
       </c>
       <c r="W10" s="15"/>
-      <c r="X10" s="17">
+      <c r="X10" s="17" t="n">
         <f>SUM(C10:W10)</f>
-        <v>2</v>
-      </c>
-      <c r="Y10" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y10" s="18" t="n">
         <f>SUM(C10:W10)</f>
-        <v>2</v>
-      </c>
-      <c r="Z10" s="41">
+        <v>3.0</v>
+      </c>
+      <c r="Z10" s="41" t="n">
         <f>AB3-X10</f>
-        <v>2</v>
-      </c>
-      <c r="AA10" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AA10" s="19" t="n">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="AB10"/>
+        <v>-1.0</v>
+      </c>
+      <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="A11">
+      <c r="A11" s="0">
         <v>8</v>
       </c>
       <c r="B11" s="20" t="s">
@@ -1600,10 +1610,10 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="AB11"/>
+      <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28">
-      <c r="A12">
+      <c r="A12" s="0">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
@@ -1634,15 +1644,18 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="AB12"/>
+      <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="A13">
+      <c r="A13" s="0">
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>21</v>
       </c>
+      <c r="C13" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="I13" s="16">
         <v>1</v>
       </c>
@@ -1650,26 +1663,26 @@
         <v>1</v>
       </c>
       <c r="W13" s="15"/>
-      <c r="X13" s="17">
+      <c r="X13" s="17" t="n">
         <f>SUM(C13:W13)</f>
-        <v>2</v>
-      </c>
-      <c r="Y13" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y13" s="18" t="n">
         <f>SUM(C13:W13)</f>
-        <v>2</v>
-      </c>
-      <c r="Z13" s="41">
+        <v>3.0</v>
+      </c>
+      <c r="Z13" s="41" t="n">
         <f>AB3-X13</f>
-        <v>2</v>
-      </c>
-      <c r="AA13" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AA13" s="19" t="n">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="AB13"/>
+        <v>-1.0</v>
+      </c>
+      <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="A14">
+      <c r="A14" s="0">
         <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
@@ -1700,15 +1713,18 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="AB14"/>
+      <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="A15">
+      <c r="A15" s="0">
         <v>12</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>23</v>
       </c>
+      <c r="C15" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="E15" s="16">
         <v>1</v>
       </c>
@@ -1716,26 +1732,26 @@
         <v>1</v>
       </c>
       <c r="W15" s="15"/>
-      <c r="X15" s="17">
+      <c r="X15" s="17" t="n">
         <f>SUM(C15:W15)</f>
-        <v>2</v>
-      </c>
-      <c r="Y15" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y15" s="18" t="n">
         <f>SUM(C15:W15)</f>
-        <v>2</v>
-      </c>
-      <c r="Z15" s="41">
+        <v>3.0</v>
+      </c>
+      <c r="Z15" s="41" t="n">
         <f>AB3-X15</f>
-        <v>2</v>
-      </c>
-      <c r="AA15" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AA15" s="19" t="n">
         <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-      <c r="AB15"/>
+        <v>-1.0</v>
+      </c>
+      <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28">
-      <c r="A16">
+      <c r="A16" s="0">
         <v>13</v>
       </c>
       <c r="B16" s="20" t="s">
@@ -1766,10 +1782,10 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="AB16"/>
+      <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28">
-      <c r="A17">
+      <c r="A17" s="0">
         <v>14</v>
       </c>
       <c r="B17" s="20" t="s">
@@ -1800,10 +1816,10 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="AB17"/>
+      <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28">
-      <c r="A18">
+      <c r="A18" s="0">
         <v>15</v>
       </c>
       <c r="B18" s="20" t="s">
@@ -1834,10 +1850,10 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="AB18"/>
+      <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="1:28">
-      <c r="A19">
+      <c r="A19" s="0">
         <v>16</v>
       </c>
       <c r="B19" s="20" t="s">
@@ -1869,7 +1885,7 @@
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="AB19"/>
+      <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" ht="14.45" customHeight="1">
       <c r="B20" s="21" t="s">
@@ -1906,7 +1922,7 @@
       </c>
     </row>
     <row r="21" spans="1:28">
-      <c r="A21">
+      <c r="A21" s="0">
         <v>1</v>
       </c>
       <c r="B21" s="40" t="s">
@@ -1935,10 +1951,10 @@
         <f>Y21-$AB$20</f>
         <v>0</v>
       </c>
-      <c r="AB21"/>
+      <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="1:28">
-      <c r="A22">
+      <c r="A22" s="0">
         <v>2</v>
       </c>
       <c r="B22" s="40" t="s">
@@ -1967,10 +1983,10 @@
         <f t="shared" ref="AA22:AA36" si="1">Y22-$AB$20</f>
         <v>0</v>
       </c>
-      <c r="AB22"/>
+      <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28">
-      <c r="A23">
+      <c r="A23" s="0">
         <v>3</v>
       </c>
       <c r="B23" s="40" t="s">
@@ -1999,10 +2015,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB23"/>
+      <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="1:28">
-      <c r="A24">
+      <c r="A24" s="0">
         <v>4</v>
       </c>
       <c r="B24" s="40" t="s">
@@ -2031,10 +2047,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB24"/>
+      <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="1:28">
-      <c r="A25">
+      <c r="A25" s="0">
         <v>5</v>
       </c>
       <c r="B25" s="40" t="s">
@@ -2063,10 +2079,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB25"/>
+      <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:28">
-      <c r="A26">
+      <c r="A26" s="0">
         <v>6</v>
       </c>
       <c r="B26" s="40" t="s">
@@ -2095,10 +2111,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB26"/>
+      <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="1:28">
-      <c r="A27">
+      <c r="A27" s="0">
         <v>7</v>
       </c>
       <c r="B27" s="40" t="s">
@@ -2127,10 +2143,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB27"/>
+      <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="1:28">
-      <c r="A28">
+      <c r="A28" s="0">
         <v>8</v>
       </c>
       <c r="B28" s="40" t="s">
@@ -2156,10 +2172,10 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="AB28"/>
+      <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="1:28">
-      <c r="A29">
+      <c r="A29" s="0">
         <v>9</v>
       </c>
       <c r="B29" s="40" t="s">
@@ -2188,10 +2204,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB29"/>
+      <c r="AB29" s="1"/>
     </row>
     <row r="30" spans="1:28">
-      <c r="A30">
+      <c r="A30" s="0">
         <v>10</v>
       </c>
       <c r="B30" s="40" t="s">
@@ -2220,10 +2236,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB30"/>
+      <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="1:28">
-      <c r="A31">
+      <c r="A31" s="0">
         <v>11</v>
       </c>
       <c r="B31" s="40" t="s">
@@ -2252,10 +2268,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB31"/>
+      <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="1:28">
-      <c r="A32">
+      <c r="A32" s="0">
         <v>12</v>
       </c>
       <c r="B32" s="40" t="s">
@@ -2284,10 +2300,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB32"/>
+      <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="1:28">
-      <c r="A33">
+      <c r="A33" s="0">
         <v>13</v>
       </c>
       <c r="B33" s="40" t="s">
@@ -2313,10 +2329,10 @@
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
-      <c r="AB33"/>
+      <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="1:28">
-      <c r="A34">
+      <c r="A34" s="0">
         <v>14</v>
       </c>
       <c r="B34" s="40" t="s">
@@ -2345,10 +2361,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB34"/>
+      <c r="AB34" s="1"/>
     </row>
     <row r="35" spans="1:28">
-      <c r="A35">
+      <c r="A35" s="0">
         <v>15</v>
       </c>
       <c r="B35" s="40" t="s">
@@ -2377,10 +2393,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB35"/>
+      <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="1:28">
-      <c r="A36">
+      <c r="A36" s="0">
         <v>16</v>
       </c>
       <c r="B36" s="40" t="s">
@@ -2408,7 +2424,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB36"/>
+      <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="1:28">
       <c r="B37" s="21" t="s">
@@ -2445,7 +2461,7 @@
       </c>
     </row>
     <row r="38" spans="1:28">
-      <c r="A38">
+      <c r="A38" s="0">
         <v>1</v>
       </c>
       <c r="B38" s="40" t="s">
@@ -2474,10 +2490,10 @@
         <f>Y38-$AB$37</f>
         <v>0</v>
       </c>
-      <c r="AB38"/>
+      <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="1:28">
-      <c r="A39">
+      <c r="A39" s="0">
         <v>2</v>
       </c>
       <c r="B39" s="40" t="s">
@@ -2506,10 +2522,10 @@
         <f t="shared" ref="AA39:AA53" si="2">Y39-$AB$37</f>
         <v>0</v>
       </c>
-      <c r="AB39"/>
+      <c r="AB39" s="1"/>
     </row>
     <row r="40" spans="1:28">
-      <c r="A40">
+      <c r="A40" s="0">
         <v>3</v>
       </c>
       <c r="B40" s="40" t="s">
@@ -2537,10 +2553,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB40"/>
+      <c r="AB40" s="1"/>
     </row>
     <row r="41" spans="1:28">
-      <c r="A41">
+      <c r="A41" s="0">
         <v>4</v>
       </c>
       <c r="B41" s="40" t="s">
@@ -2568,10 +2584,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB41"/>
+      <c r="AB41" s="1"/>
     </row>
     <row r="42" spans="1:28">
-      <c r="A42">
+      <c r="A42" s="0">
         <v>5</v>
       </c>
       <c r="B42" s="40" t="s">
@@ -2600,126 +2616,138 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB42"/>
+      <c r="AB42" s="1"/>
     </row>
     <row r="43" spans="1:28">
-      <c r="A43">
+      <c r="A43" s="0">
         <v>6</v>
       </c>
       <c r="B43" s="40" t="s">
         <v>51</v>
       </c>
+      <c r="C43" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="J43" s="16">
         <v>1</v>
       </c>
       <c r="W43" s="15"/>
-      <c r="X43" s="17">
+      <c r="X43" s="17" t="n">
         <f>SUM(C43:W43)</f>
-        <v>1</v>
-      </c>
-      <c r="Y43" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y43" s="18" t="n">
         <f>SUM(C43:W43)</f>
-        <v>1</v>
-      </c>
-      <c r="Z43" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="Z43" s="41" t="n">
         <f>AB37-X43</f>
-        <v>1</v>
-      </c>
-      <c r="AA43" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA43" s="19" t="n">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="AB43"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB43" s="1"/>
     </row>
     <row r="44" spans="1:28">
-      <c r="A44">
+      <c r="A44" s="0">
         <v>7</v>
       </c>
       <c r="B44" s="40" t="s">
         <v>52</v>
       </c>
+      <c r="C44" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="Q44" s="16">
         <v>1</v>
       </c>
       <c r="W44" s="15"/>
-      <c r="X44" s="17">
+      <c r="X44" s="17" t="n">
         <f>SUM(C44:W44)</f>
-        <v>1</v>
-      </c>
-      <c r="Y44" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y44" s="18" t="n">
         <f>SUM(C44:W44)</f>
-        <v>1</v>
-      </c>
-      <c r="Z44" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="Z44" s="41" t="n">
         <f>AB37-X44</f>
-        <v>1</v>
-      </c>
-      <c r="AA44" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA44" s="19" t="n">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="AB44"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A45">
+      <c r="A45" s="0">
         <v>8</v>
       </c>
       <c r="B45" s="40" t="s">
         <v>53</v>
       </c>
+      <c r="C45" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="U45" s="16">
         <v>1</v>
       </c>
       <c r="W45" s="15"/>
-      <c r="X45" s="17">
+      <c r="X45" s="17" t="n">
         <f>SUM(C45:W45)</f>
-        <v>1</v>
-      </c>
-      <c r="Y45" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y45" s="18" t="n">
         <f>SUM(C45:W45)</f>
-        <v>1</v>
-      </c>
-      <c r="Z45" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="Z45" s="41" t="n">
         <f>AB37-X45</f>
-        <v>1</v>
-      </c>
-      <c r="AA45" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA45" s="19" t="n">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="AB45"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB45" s="1"/>
     </row>
     <row r="46" spans="1:28">
-      <c r="A46">
+      <c r="A46" s="0">
         <v>9</v>
       </c>
       <c r="B46" s="40" t="s">
         <v>54</v>
       </c>
+      <c r="C46" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="Q46" s="16">
         <v>1</v>
       </c>
       <c r="W46" s="15"/>
-      <c r="X46" s="17">
+      <c r="X46" s="17" t="n">
         <f>SUM(C46:W46)</f>
-        <v>1</v>
-      </c>
-      <c r="Y46" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y46" s="18" t="n">
         <f>SUM(C46:W46)</f>
-        <v>1</v>
-      </c>
-      <c r="Z46" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="Z46" s="41" t="n">
         <f>AB37-X46</f>
-        <v>1</v>
-      </c>
-      <c r="AA46" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA46" s="19" t="n">
         <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="AB46"/>
+        <v>0.0</v>
+      </c>
+      <c r="AB46" s="1"/>
     </row>
     <row r="47" spans="1:28">
-      <c r="A47">
+      <c r="A47" s="0">
         <v>10</v>
       </c>
       <c r="B47" s="40" t="s">
@@ -2745,10 +2773,10 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="AB47"/>
+      <c r="AB47" s="1"/>
     </row>
     <row r="48" spans="1:28">
-      <c r="A48">
+      <c r="A48" s="0">
         <v>11</v>
       </c>
       <c r="B48" s="40" t="s">
@@ -2774,10 +2802,10 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="AB48"/>
+      <c r="AB48" s="1"/>
     </row>
     <row r="49" spans="1:28">
-      <c r="A49">
+      <c r="A49" s="0">
         <v>12</v>
       </c>
       <c r="B49" s="40" t="s">
@@ -2803,10 +2831,10 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="AB49"/>
+      <c r="AB49" s="1"/>
     </row>
     <row r="50" spans="1:28">
-      <c r="A50">
+      <c r="A50" s="0">
         <v>13</v>
       </c>
       <c r="B50" s="40" t="s">
@@ -2835,10 +2863,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB50"/>
+      <c r="AB50" s="1"/>
     </row>
     <row r="51" spans="1:28">
-      <c r="A51">
+      <c r="A51" s="0">
         <v>14</v>
       </c>
       <c r="B51" s="40" t="s">
@@ -2866,10 +2894,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AB51"/>
+      <c r="AB51" s="1"/>
     </row>
     <row r="52" spans="1:28">
-      <c r="A52">
+      <c r="A52" s="0">
         <v>15</v>
       </c>
       <c r="B52" s="40" t="s">
@@ -2895,10 +2923,10 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="AB52"/>
+      <c r="AB52" s="1"/>
     </row>
     <row r="53" spans="1:28">
-      <c r="A53">
+      <c r="A53" s="0">
         <v>16</v>
       </c>
       <c r="B53" s="40" t="s">
@@ -2924,7 +2952,7 @@
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="AB53"/>
+      <c r="AB53" s="1"/>
     </row>
     <row r="54" spans="1:28">
       <c r="B54" s="21" t="s">
@@ -2961,7 +2989,7 @@
       </c>
     </row>
     <row r="55" spans="1:28">
-      <c r="A55">
+      <c r="A55" s="0">
         <v>1</v>
       </c>
       <c r="B55" s="39" t="s">
@@ -2993,10 +3021,10 @@
         <f>Y55-AB$54</f>
         <v>-1</v>
       </c>
-      <c r="AB55"/>
+      <c r="AB55" s="1"/>
     </row>
     <row r="56" spans="1:28">
-      <c r="A56">
+      <c r="A56" s="0">
         <v>2</v>
       </c>
       <c r="B56" s="40" t="s">
@@ -3028,10 +3056,10 @@
         <f t="shared" ref="AA56:AA70" si="3">Y56-AB$54</f>
         <v>-1</v>
       </c>
-      <c r="AB56"/>
+      <c r="AB56" s="1"/>
     </row>
     <row r="57" spans="1:28">
-      <c r="A57">
+      <c r="A57" s="0">
         <v>3</v>
       </c>
       <c r="B57" s="39" t="s">
@@ -3063,10 +3091,10 @@
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="AB57"/>
+      <c r="AB57" s="1"/>
     </row>
     <row r="58" spans="1:28">
-      <c r="A58">
+      <c r="A58" s="0">
         <v>4</v>
       </c>
       <c r="B58" s="40" t="s">
@@ -3100,10 +3128,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB58"/>
+      <c r="AB58" s="1"/>
     </row>
     <row r="59" spans="1:28">
-      <c r="A59">
+      <c r="A59" s="0">
         <v>5</v>
       </c>
       <c r="B59" s="40" t="s">
@@ -3135,10 +3163,10 @@
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="AB59"/>
+      <c r="AB59" s="1"/>
     </row>
     <row r="60" spans="1:28">
-      <c r="A60">
+      <c r="A60" s="0">
         <v>6</v>
       </c>
       <c r="B60" s="39" t="s">
@@ -3170,10 +3198,10 @@
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="AB60"/>
+      <c r="AB60" s="1"/>
     </row>
     <row r="61" spans="1:28">
-      <c r="A61">
+      <c r="A61" s="0">
         <v>7</v>
       </c>
       <c r="B61" s="40" t="s">
@@ -3207,10 +3235,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB61"/>
+      <c r="AB61" s="1"/>
     </row>
     <row r="62" spans="1:28">
-      <c r="A62">
+      <c r="A62" s="0">
         <v>8</v>
       </c>
       <c r="B62" s="39" t="s">
@@ -3245,10 +3273,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB62"/>
+      <c r="AB62" s="1"/>
     </row>
     <row r="63" spans="1:28">
-      <c r="A63">
+      <c r="A63" s="0">
         <v>9</v>
       </c>
       <c r="B63" s="39" t="s">
@@ -3282,10 +3310,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB63"/>
+      <c r="AB63" s="1"/>
     </row>
     <row r="64" spans="1:28">
-      <c r="A64">
+      <c r="A64" s="0">
         <v>10</v>
       </c>
       <c r="B64" s="40" t="s">
@@ -3320,10 +3348,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB64"/>
+      <c r="AB64" s="1"/>
     </row>
     <row r="65" spans="1:28">
-      <c r="A65">
+      <c r="A65" s="0">
         <v>11</v>
       </c>
       <c r="B65" s="39" t="s">
@@ -3352,10 +3380,10 @@
         <f t="shared" si="3"/>
         <v>-2</v>
       </c>
-      <c r="AB65"/>
+      <c r="AB65" s="1"/>
     </row>
     <row r="66" spans="1:28">
-      <c r="A66">
+      <c r="A66" s="0">
         <v>12</v>
       </c>
       <c r="B66" s="39" t="s">
@@ -3389,10 +3417,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB66"/>
+      <c r="AB66" s="1"/>
     </row>
     <row r="67" spans="1:28">
-      <c r="A67">
+      <c r="A67" s="0">
         <v>13</v>
       </c>
       <c r="B67" s="40" t="s">
@@ -3426,10 +3454,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB67"/>
+      <c r="AB67" s="1"/>
     </row>
     <row r="68" spans="1:28">
-      <c r="A68">
+      <c r="A68" s="0">
         <v>14</v>
       </c>
       <c r="B68" s="40" t="s">
@@ -3461,10 +3489,10 @@
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="AB68"/>
+      <c r="AB68" s="1"/>
     </row>
     <row r="69" spans="1:28">
-      <c r="A69">
+      <c r="A69" s="0">
         <v>15</v>
       </c>
       <c r="B69" s="39" t="s">
@@ -3498,10 +3526,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB69"/>
+      <c r="AB69" s="1"/>
     </row>
     <row r="70" spans="1:28">
-      <c r="A70">
+      <c r="A70" s="0">
         <v>16</v>
       </c>
       <c r="B70" s="40" t="s">
@@ -3535,7 +3563,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AB70"/>
+      <c r="AB70" s="1"/>
     </row>
     <row r="71" spans="1:28">
       <c r="B71" s="25"/>
@@ -3562,22 +3590,22 @@
       <c r="U71" s="27"/>
       <c r="V71" s="27"/>
       <c r="W71" s="27"/>
-      <c r="X71" s="28">
+      <c r="X71" s="28" t="n">
         <f>SUM(X4:X70)</f>
-        <v>154</v>
-      </c>
-      <c r="Y71" s="29">
+        <v>163.0</v>
+      </c>
+      <c r="Y71" s="29" t="n">
         <f>SUM(Y4:Y70)</f>
-        <v>154</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="72" spans="1:28">
       <c r="B72" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="31">
+      <c r="C72" s="31" t="n">
         <f>SUM(X4:X19)</f>
-        <v>45</v>
+        <v>50.0</v>
       </c>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
@@ -3600,15 +3628,15 @@
       <c r="V72" s="27"/>
       <c r="W72" s="27"/>
       <c r="X72" s="32"/>
-      <c r="Y72"/>
+      <c r="Y72" s="16"/>
     </row>
     <row r="73" spans="1:28">
       <c r="B73" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="31">
+      <c r="C73" s="31" t="n">
         <f>SUM(X21:X36)</f>
-        <v>30</v>
+        <v>30.0</v>
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
@@ -3631,15 +3659,15 @@
       <c r="V73" s="27"/>
       <c r="W73" s="27"/>
       <c r="X73" s="32"/>
-      <c r="Y73"/>
+      <c r="Y73" s="16"/>
     </row>
     <row r="74" spans="1:28">
       <c r="B74" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C74" s="31">
+      <c r="C74" s="31" t="n">
         <f>SUM(X38:X53)</f>
-        <v>23</v>
+        <v>27.0</v>
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
@@ -3662,15 +3690,15 @@
       <c r="V74" s="27"/>
       <c r="W74" s="27"/>
       <c r="X74" s="32"/>
-      <c r="Y74"/>
+      <c r="Y74" s="16"/>
     </row>
     <row r="75" spans="1:28">
       <c r="B75" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="33">
+      <c r="C75" s="33" t="n">
         <f>SUM(X55:X70)</f>
-        <v>56</v>
+        <v>56.0</v>
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
@@ -3693,15 +3721,15 @@
       <c r="V75" s="27"/>
       <c r="W75" s="27"/>
       <c r="X75" s="32"/>
-      <c r="Y75"/>
+      <c r="Y75" s="16"/>
     </row>
     <row r="76" spans="1:28">
       <c r="B76" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="35">
+      <c r="C76" s="35" t="n">
         <f>SUM(C72:C75)</f>
-        <v>154</v>
+        <v>163.0</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
@@ -3724,7 +3752,7 @@
       <c r="V76" s="27"/>
       <c r="W76" s="27"/>
       <c r="X76" s="32"/>
-      <c r="Y76"/>
+      <c r="Y76" s="16"/>
     </row>
     <row r="77" spans="1:28">
       <c r="C77" s="27"/>

--- a/On-Call-Tracker/src/inputs/On-call_Tallies.xlsx
+++ b/On-Call-Tracker/src/inputs/On-call_Tallies.xlsx
@@ -1514,6 +1514,9 @@
       <c r="B9" s="20" t="s">
         <v>17</v>
       </c>
+      <c r="C9" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="D9" s="16">
         <v>1</v>
       </c>
@@ -1524,21 +1527,21 @@
         <v>1</v>
       </c>
       <c r="W9" s="15"/>
-      <c r="X9" s="17">
+      <c r="X9" s="17" t="n">
         <f>SUM(C9:W9)</f>
-        <v>3</v>
-      </c>
-      <c r="Y9" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y9" s="18" t="n">
         <f>SUM(C9:W9)</f>
-        <v>3</v>
-      </c>
-      <c r="Z9" s="41">
+        <v>4.0</v>
+      </c>
+      <c r="Z9" s="41" t="n">
         <f>AB3-X9</f>
-        <v>1</v>
-      </c>
-      <c r="AA9" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA9" s="19" t="n">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.0</v>
       </c>
       <c r="AB9" s="1"/>
     </row>
@@ -1584,6 +1587,9 @@
       <c r="B11" s="20" t="s">
         <v>19</v>
       </c>
+      <c r="C11" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="E11" s="16">
         <v>1</v>
       </c>
@@ -1594,21 +1600,21 @@
         <v>1</v>
       </c>
       <c r="W11" s="15"/>
-      <c r="X11" s="17">
+      <c r="X11" s="17" t="n">
         <f>SUM(C11:W11)</f>
-        <v>3</v>
-      </c>
-      <c r="Y11" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y11" s="18" t="n">
         <f>SUM(C11:W11)</f>
-        <v>3</v>
-      </c>
-      <c r="Z11" s="41">
+        <v>4.0</v>
+      </c>
+      <c r="Z11" s="41" t="n">
         <f>AB3-X11</f>
-        <v>1</v>
-      </c>
-      <c r="AA11" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA11" s="19" t="n">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.0</v>
       </c>
       <c r="AB11" s="1"/>
     </row>
@@ -1619,6 +1625,9 @@
       <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
+      <c r="C12" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="E12" s="16">
         <v>1</v>
       </c>
@@ -1628,21 +1637,21 @@
       <c r="W12" s="15">
         <v>1</v>
       </c>
-      <c r="X12" s="17">
+      <c r="X12" s="17" t="n">
         <f>SUM(C12:W12)</f>
-        <v>3</v>
-      </c>
-      <c r="Y12" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y12" s="18" t="n">
         <f>SUM(C12:W12)</f>
-        <v>3</v>
-      </c>
-      <c r="Z12" s="41">
+        <v>4.0</v>
+      </c>
+      <c r="Z12" s="41" t="n">
         <f>AB3-X12</f>
-        <v>1</v>
-      </c>
-      <c r="AA12" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA12" s="19" t="n">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.0</v>
       </c>
       <c r="AB12" s="1"/>
     </row>
@@ -1688,6 +1697,9 @@
       <c r="B14" s="20" t="s">
         <v>22</v>
       </c>
+      <c r="C14" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="E14" s="16">
         <v>1</v>
       </c>
@@ -1697,21 +1709,21 @@
       <c r="W14" s="15">
         <v>1</v>
       </c>
-      <c r="X14" s="17">
+      <c r="X14" s="17" t="n">
         <f>SUM(C14:W14)</f>
-        <v>3</v>
-      </c>
-      <c r="Y14" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y14" s="18" t="n">
         <f>SUM(C14:W14)</f>
-        <v>3</v>
-      </c>
-      <c r="Z14" s="41">
+        <v>4.0</v>
+      </c>
+      <c r="Z14" s="41" t="n">
         <f>AB3-X14</f>
-        <v>1</v>
-      </c>
-      <c r="AA14" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA14" s="19" t="n">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0.0</v>
       </c>
       <c r="AB14" s="1"/>
     </row>
@@ -2152,25 +2164,28 @@
       <c r="B28" s="40" t="s">
         <v>36</v>
       </c>
+      <c r="C28" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="H28" s="15">
         <v>1</v>
       </c>
       <c r="W28" s="15"/>
-      <c r="X28" s="17">
+      <c r="X28" s="17" t="n">
         <f>SUM(C28:W28)</f>
-        <v>1</v>
-      </c>
-      <c r="Y28" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y28" s="18" t="n">
         <f>SUM(C28:W28)</f>
-        <v>1</v>
-      </c>
-      <c r="Z28" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="Z28" s="41" t="n">
         <f>AB20-X28</f>
-        <v>1</v>
-      </c>
-      <c r="AA28" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA28" s="19" t="n">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.0</v>
       </c>
       <c r="AB28" s="1"/>
     </row>
@@ -2309,25 +2324,28 @@
       <c r="B33" s="40" t="s">
         <v>41</v>
       </c>
+      <c r="C33" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="Q33" s="16">
         <v>1</v>
       </c>
       <c r="W33" s="15"/>
-      <c r="X33" s="17">
+      <c r="X33" s="17" t="n">
         <f>SUM(C33:W33)</f>
-        <v>1</v>
-      </c>
-      <c r="Y33" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y33" s="18" t="n">
         <f>SUM(C33:W33)</f>
-        <v>1</v>
-      </c>
-      <c r="Z33" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="Z33" s="41" t="n">
         <f>AB20-X33</f>
-        <v>1</v>
-      </c>
-      <c r="AA33" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA33" s="19" t="n">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>0.0</v>
       </c>
       <c r="AB33" s="1"/>
     </row>
@@ -2753,25 +2771,28 @@
       <c r="B47" s="40" t="s">
         <v>55</v>
       </c>
+      <c r="C47" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="Q47" s="16">
         <v>1</v>
       </c>
       <c r="W47" s="15"/>
-      <c r="X47" s="17">
+      <c r="X47" s="17" t="n">
         <f>SUM(C47:W47)</f>
-        <v>1</v>
-      </c>
-      <c r="Y47" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y47" s="18" t="n">
         <f>SUM(C47:W47)</f>
-        <v>1</v>
-      </c>
-      <c r="Z47" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="Z47" s="41" t="n">
         <f>AB37-X47</f>
-        <v>1</v>
-      </c>
-      <c r="AA47" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA47" s="19" t="n">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0.0</v>
       </c>
       <c r="AB47" s="1"/>
     </row>
@@ -2782,25 +2803,28 @@
       <c r="B48" s="40" t="s">
         <v>56</v>
       </c>
+      <c r="C48" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="Q48" s="16">
         <v>1</v>
       </c>
       <c r="W48" s="15"/>
-      <c r="X48" s="17">
+      <c r="X48" s="17" t="n">
         <f>SUM(C48:W48)</f>
-        <v>1</v>
-      </c>
-      <c r="Y48" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y48" s="18" t="n">
         <f>SUM(C48:W48)</f>
-        <v>1</v>
-      </c>
-      <c r="Z48" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="Z48" s="41" t="n">
         <f>AB37-X48</f>
-        <v>1</v>
-      </c>
-      <c r="AA48" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA48" s="19" t="n">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0.0</v>
       </c>
       <c r="AB48" s="1"/>
     </row>
@@ -2811,25 +2835,28 @@
       <c r="B49" s="40" t="s">
         <v>57</v>
       </c>
+      <c r="C49" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="S49" s="16">
         <v>1</v>
       </c>
       <c r="W49" s="15"/>
-      <c r="X49" s="17">
+      <c r="X49" s="17" t="n">
         <f>SUM(C49:W49)</f>
-        <v>1</v>
-      </c>
-      <c r="Y49" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y49" s="18" t="n">
         <f>SUM(C49:W49)</f>
-        <v>1</v>
-      </c>
-      <c r="Z49" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="Z49" s="41" t="n">
         <f>AB37-X49</f>
-        <v>1</v>
-      </c>
-      <c r="AA49" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA49" s="19" t="n">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0.0</v>
       </c>
       <c r="AB49" s="1"/>
     </row>
@@ -2903,25 +2930,28 @@
       <c r="B52" s="40" t="s">
         <v>60</v>
       </c>
+      <c r="C52" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="I52" s="16">
         <v>1</v>
       </c>
       <c r="W52" s="15"/>
-      <c r="X52" s="17">
+      <c r="X52" s="17" t="n">
         <f>SUM(C52:W52)</f>
-        <v>1</v>
-      </c>
-      <c r="Y52" s="18">
+        <v>2.0</v>
+      </c>
+      <c r="Y52" s="18" t="n">
         <f>SUM(C52:W52)</f>
-        <v>1</v>
-      </c>
-      <c r="Z52" s="41">
+        <v>2.0</v>
+      </c>
+      <c r="Z52" s="41" t="n">
         <f>AB37-X52</f>
-        <v>1</v>
-      </c>
-      <c r="AA52" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA52" s="19" t="n">
         <f t="shared" si="2"/>
-        <v>-1</v>
+        <v>0.0</v>
       </c>
       <c r="AB52" s="1"/>
     </row>
@@ -3030,6 +3060,9 @@
       <c r="B56" s="40" t="s">
         <v>64</v>
       </c>
+      <c r="C56" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="D56" s="16">
         <v>1</v>
       </c>
@@ -3040,21 +3073,21 @@
         <v>1</v>
       </c>
       <c r="W56" s="15"/>
-      <c r="X56" s="17">
+      <c r="X56" s="17" t="n">
         <f>SUM(C56:W56)</f>
-        <v>3</v>
-      </c>
-      <c r="Y56" s="18">
+        <v>4.0</v>
+      </c>
+      <c r="Y56" s="18" t="n">
         <f>SUM(C56:W56)</f>
-        <v>3</v>
-      </c>
-      <c r="Z56" s="41">
+        <v>4.0</v>
+      </c>
+      <c r="Z56" s="41" t="n">
         <f>AB54-X56</f>
-        <v>1</v>
-      </c>
-      <c r="AA56" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA56" s="19" t="n">
         <f t="shared" ref="AA56:AA70" si="3">Y56-AB$54</f>
-        <v>-1</v>
+        <v>0.0</v>
       </c>
       <c r="AB56" s="1"/>
     </row>
@@ -3357,6 +3390,9 @@
       <c r="B65" s="39" t="s">
         <v>24</v>
       </c>
+      <c r="C65" t="n" s="15">
+        <v>1.0</v>
+      </c>
       <c r="U65" s="16">
         <v>1</v>
       </c>
@@ -3364,21 +3400,21 @@
         <v>1</v>
       </c>
       <c r="W65" s="15"/>
-      <c r="X65" s="17">
+      <c r="X65" s="17" t="n">
         <f>SUM(C65:W65)</f>
-        <v>2</v>
-      </c>
-      <c r="Y65" s="18">
+        <v>3.0</v>
+      </c>
+      <c r="Y65" s="18" t="n">
         <f>SUM(C65:W65)</f>
-        <v>2</v>
-      </c>
-      <c r="Z65" s="41">
+        <v>3.0</v>
+      </c>
+      <c r="Z65" s="41" t="n">
         <f>AB54-X65</f>
-        <v>2</v>
-      </c>
-      <c r="AA65" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AA65" s="19" t="n">
         <f t="shared" si="3"/>
-        <v>-2</v>
+        <v>-1.0</v>
       </c>
       <c r="AB65" s="1"/>
     </row>
@@ -3592,11 +3628,11 @@
       <c r="W71" s="27"/>
       <c r="X71" s="28" t="n">
         <f>SUM(X4:X70)</f>
-        <v>163.0</v>
+        <v>175.0</v>
       </c>
       <c r="Y71" s="29" t="n">
         <f>SUM(Y4:Y70)</f>
-        <v>163.0</v>
+        <v>175.0</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -3605,7 +3641,7 @@
       </c>
       <c r="C72" s="31" t="n">
         <f>SUM(X4:X19)</f>
-        <v>50.0</v>
+        <v>54.0</v>
       </c>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
@@ -3636,7 +3672,7 @@
       </c>
       <c r="C73" s="31" t="n">
         <f>SUM(X21:X36)</f>
-        <v>30.0</v>
+        <v>32.0</v>
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
@@ -3667,7 +3703,7 @@
       </c>
       <c r="C74" s="31" t="n">
         <f>SUM(X38:X53)</f>
-        <v>27.0</v>
+        <v>31.0</v>
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
@@ -3698,7 +3734,7 @@
       </c>
       <c r="C75" s="33" t="n">
         <f>SUM(X55:X70)</f>
-        <v>56.0</v>
+        <v>58.0</v>
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
@@ -3729,7 +3765,7 @@
       </c>
       <c r="C76" s="35" t="n">
         <f>SUM(C72:C75)</f>
-        <v>163.0</v>
+        <v>175.0</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>

--- a/On-Call-Tracker/src/inputs/On-call_Tallies.xlsx
+++ b/On-Call-Tracker/src/inputs/On-call_Tallies.xlsx
@@ -1514,9 +1514,6 @@
       <c r="B9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="n" s="15">
-        <v>1.0</v>
-      </c>
       <c r="D9" s="16">
         <v>1</v>
       </c>
@@ -1527,21 +1524,21 @@
         <v>1</v>
       </c>
       <c r="W9" s="15"/>
-      <c r="X9" s="17" t="n">
+      <c r="X9" s="17">
         <f>SUM(C9:W9)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Y9" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="18">
         <f>SUM(C9:W9)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Z9" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="41">
         <f>AB3-X9</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA9" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="19">
         <f t="shared" si="0"/>
-        <v>0.0</v>
+        <v>-1</v>
       </c>
       <c r="AB9" s="1"/>
     </row>
@@ -1587,9 +1584,6 @@
       <c r="B11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="n" s="15">
-        <v>1.0</v>
-      </c>
       <c r="E11" s="16">
         <v>1</v>
       </c>
@@ -1600,21 +1594,21 @@
         <v>1</v>
       </c>
       <c r="W11" s="15"/>
-      <c r="X11" s="17" t="n">
+      <c r="X11" s="17">
         <f>SUM(C11:W11)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Y11" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="18">
         <f>SUM(C11:W11)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Z11" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="41">
         <f>AB3-X11</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA11" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="19">
         <f t="shared" si="0"/>
-        <v>0.0</v>
+        <v>-1</v>
       </c>
       <c r="AB11" s="1"/>
     </row>
@@ -1625,9 +1619,6 @@
       <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="n" s="15">
-        <v>1.0</v>
-      </c>
       <c r="E12" s="16">
         <v>1</v>
       </c>
@@ -1637,21 +1628,21 @@
       <c r="W12" s="15">
         <v>1</v>
       </c>
-      <c r="X12" s="17" t="n">
+      <c r="X12" s="17">
         <f>SUM(C12:W12)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Y12" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y12" s="18">
         <f>SUM(C12:W12)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Z12" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z12" s="41">
         <f>AB3-X12</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA12" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="19">
         <f t="shared" si="0"/>
-        <v>0.0</v>
+        <v>-1</v>
       </c>
       <c r="AB12" s="1"/>
     </row>
@@ -1697,9 +1688,6 @@
       <c r="B14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="n" s="15">
-        <v>1.0</v>
-      </c>
       <c r="E14" s="16">
         <v>1</v>
       </c>
@@ -1709,21 +1697,21 @@
       <c r="W14" s="15">
         <v>1</v>
       </c>
-      <c r="X14" s="17" t="n">
+      <c r="X14" s="17">
         <f>SUM(C14:W14)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Y14" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y14" s="18">
         <f>SUM(C14:W14)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Z14" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="41">
         <f>AB3-X14</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA14" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="19">
         <f t="shared" si="0"/>
-        <v>0.0</v>
+        <v>-1</v>
       </c>
       <c r="AB14" s="1"/>
     </row>
@@ -2164,28 +2152,25 @@
       <c r="B28" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C28" t="n" s="15">
-        <v>1.0</v>
-      </c>
       <c r="H28" s="15">
         <v>1</v>
       </c>
       <c r="W28" s="15"/>
-      <c r="X28" s="17" t="n">
+      <c r="X28" s="17">
         <f>SUM(C28:W28)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Y28" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="18">
         <f>SUM(C28:W28)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Z28" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="41">
         <f>AB20-X28</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA28" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="19">
         <f t="shared" si="1"/>
-        <v>0.0</v>
+        <v>-1</v>
       </c>
       <c r="AB28" s="1"/>
     </row>
@@ -2324,28 +2309,25 @@
       <c r="B33" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C33" t="n" s="15">
-        <v>1.0</v>
-      </c>
       <c r="Q33" s="16">
         <v>1</v>
       </c>
       <c r="W33" s="15"/>
-      <c r="X33" s="17" t="n">
+      <c r="X33" s="17">
         <f>SUM(C33:W33)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Y33" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="18">
         <f>SUM(C33:W33)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Z33" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="41">
         <f>AB20-X33</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA33" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="19">
         <f t="shared" si="1"/>
-        <v>0.0</v>
+        <v>-1</v>
       </c>
       <c r="AB33" s="1"/>
     </row>
@@ -2771,28 +2753,25 @@
       <c r="B47" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C47" t="n" s="15">
-        <v>1.0</v>
-      </c>
       <c r="Q47" s="16">
         <v>1</v>
       </c>
       <c r="W47" s="15"/>
-      <c r="X47" s="17" t="n">
+      <c r="X47" s="17">
         <f>SUM(C47:W47)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Y47" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="18">
         <f>SUM(C47:W47)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Z47" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="41">
         <f>AB37-X47</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA47" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="19">
         <f t="shared" si="2"/>
-        <v>0.0</v>
+        <v>-1</v>
       </c>
       <c r="AB47" s="1"/>
     </row>
@@ -2803,28 +2782,25 @@
       <c r="B48" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C48" t="n" s="15">
-        <v>1.0</v>
-      </c>
       <c r="Q48" s="16">
         <v>1</v>
       </c>
       <c r="W48" s="15"/>
-      <c r="X48" s="17" t="n">
+      <c r="X48" s="17">
         <f>SUM(C48:W48)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Y48" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="18">
         <f>SUM(C48:W48)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Z48" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="41">
         <f>AB37-X48</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA48" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="19">
         <f t="shared" si="2"/>
-        <v>0.0</v>
+        <v>-1</v>
       </c>
       <c r="AB48" s="1"/>
     </row>
@@ -2835,28 +2811,25 @@
       <c r="B49" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C49" t="n" s="15">
-        <v>1.0</v>
-      </c>
       <c r="S49" s="16">
         <v>1</v>
       </c>
       <c r="W49" s="15"/>
-      <c r="X49" s="17" t="n">
+      <c r="X49" s="17">
         <f>SUM(C49:W49)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Y49" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y49" s="18">
         <f>SUM(C49:W49)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Z49" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z49" s="41">
         <f>AB37-X49</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA49" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="19">
         <f t="shared" si="2"/>
-        <v>0.0</v>
+        <v>-1</v>
       </c>
       <c r="AB49" s="1"/>
     </row>
@@ -2930,28 +2903,25 @@
       <c r="B52" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C52" t="n" s="15">
-        <v>1.0</v>
-      </c>
       <c r="I52" s="16">
         <v>1</v>
       </c>
       <c r="W52" s="15"/>
-      <c r="X52" s="17" t="n">
+      <c r="X52" s="17">
         <f>SUM(C52:W52)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Y52" s="18" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y52" s="18">
         <f>SUM(C52:W52)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Z52" s="41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z52" s="41">
         <f>AB37-X52</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA52" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="19">
         <f t="shared" si="2"/>
-        <v>0.0</v>
+        <v>-1</v>
       </c>
       <c r="AB52" s="1"/>
     </row>
@@ -3060,9 +3030,6 @@
       <c r="B56" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C56" t="n" s="15">
-        <v>1.0</v>
-      </c>
       <c r="D56" s="16">
         <v>1</v>
       </c>
@@ -3073,21 +3040,21 @@
         <v>1</v>
       </c>
       <c r="W56" s="15"/>
-      <c r="X56" s="17" t="n">
+      <c r="X56" s="17">
         <f>SUM(C56:W56)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Y56" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y56" s="18">
         <f>SUM(C56:W56)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Z56" s="41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z56" s="41">
         <f>AB54-X56</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA56" s="19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="19">
         <f t="shared" ref="AA56:AA70" si="3">Y56-AB$54</f>
-        <v>0.0</v>
+        <v>-1</v>
       </c>
       <c r="AB56" s="1"/>
     </row>
@@ -3390,9 +3357,6 @@
       <c r="B65" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C65" t="n" s="15">
-        <v>1.0</v>
-      </c>
       <c r="U65" s="16">
         <v>1</v>
       </c>
@@ -3400,21 +3364,21 @@
         <v>1</v>
       </c>
       <c r="W65" s="15"/>
-      <c r="X65" s="17" t="n">
+      <c r="X65" s="17">
         <f>SUM(C65:W65)</f>
-        <v>3.0</v>
-      </c>
-      <c r="Y65" s="18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y65" s="18">
         <f>SUM(C65:W65)</f>
-        <v>3.0</v>
-      </c>
-      <c r="Z65" s="41" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z65" s="41">
         <f>AB54-X65</f>
-        <v>1.0</v>
-      </c>
-      <c r="AA65" s="19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA65" s="19">
         <f t="shared" si="3"/>
-        <v>-1.0</v>
+        <v>-2</v>
       </c>
       <c r="AB65" s="1"/>
     </row>
@@ -3628,11 +3592,11 @@
       <c r="W71" s="27"/>
       <c r="X71" s="28" t="n">
         <f>SUM(X4:X70)</f>
-        <v>175.0</v>
+        <v>163.0</v>
       </c>
       <c r="Y71" s="29" t="n">
         <f>SUM(Y4:Y70)</f>
-        <v>175.0</v>
+        <v>163.0</v>
       </c>
     </row>
     <row r="72" spans="1:28">
@@ -3641,7 +3605,7 @@
       </c>
       <c r="C72" s="31" t="n">
         <f>SUM(X4:X19)</f>
-        <v>54.0</v>
+        <v>50.0</v>
       </c>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
@@ -3672,7 +3636,7 @@
       </c>
       <c r="C73" s="31" t="n">
         <f>SUM(X21:X36)</f>
-        <v>32.0</v>
+        <v>30.0</v>
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
@@ -3703,7 +3667,7 @@
       </c>
       <c r="C74" s="31" t="n">
         <f>SUM(X38:X53)</f>
-        <v>31.0</v>
+        <v>27.0</v>
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
@@ -3734,7 +3698,7 @@
       </c>
       <c r="C75" s="33" t="n">
         <f>SUM(X55:X70)</f>
-        <v>58.0</v>
+        <v>56.0</v>
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
@@ -3765,7 +3729,7 @@
       </c>
       <c r="C76" s="35" t="n">
         <f>SUM(C72:C75)</f>
-        <v>175.0</v>
+        <v>163.0</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>

--- a/On-Call-Tracker/src/inputs/On-call_Tallies.xlsx
+++ b/On-Call-Tracker/src/inputs/On-call_Tallies.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dineth/repos/OCT-T9/On-Call-Tracker/src/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3E398A5-3131-4172-8C6B-DC0E44BC32D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174B2BD7-F2C6-2745-BDFA-626D644A91E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67200" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Month1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -284,8 +284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,6 +726,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -750,18 +761,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1115,35 +1114,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB136"/>
+  <dimension ref="A1:AD136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="Y51" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z71" sqref="Z71"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="3.42578125"/>
-    <col min="2" max="2" customWidth="true" width="20.42578125"/>
-    <col min="3" max="3" customWidth="true" style="15" width="4.42578125"/>
-    <col min="4" max="7" customWidth="true" style="16" width="4.42578125"/>
-    <col min="8" max="8" customWidth="true" style="15" width="4.42578125"/>
-    <col min="9" max="12" customWidth="true" style="16" width="4.42578125"/>
-    <col min="13" max="13" customWidth="true" style="15" width="4.42578125"/>
-    <col min="14" max="17" customWidth="true" style="16" width="4.42578125"/>
-    <col min="18" max="18" customWidth="true" style="15" width="4.42578125"/>
-    <col min="19" max="23" customWidth="true" style="16" width="4.42578125"/>
-    <col min="24" max="24" style="17" width="8.7109375"/>
-    <col min="25" max="25" style="16" width="8.7109375"/>
-    <col min="27" max="27" customWidth="true" width="15.28515625"/>
-    <col min="28" max="28" style="1" width="8.7109375"/>
-    <col min="29" max="29" customWidth="true" style="6" width="17.42578125"/>
-    <col min="30" max="30" style="2" width="8.7109375"/>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="4.5" style="15" customWidth="1"/>
+    <col min="4" max="7" width="4.5" style="16" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="15" customWidth="1"/>
+    <col min="9" max="12" width="4.5" style="16" customWidth="1"/>
+    <col min="13" max="13" width="4.5" style="15" customWidth="1"/>
+    <col min="14" max="17" width="4.5" style="16" customWidth="1"/>
+    <col min="18" max="18" width="4.5" style="15" customWidth="1"/>
+    <col min="19" max="23" width="4.5" style="16" customWidth="1"/>
+    <col min="24" max="24" width="8.6640625" style="17"/>
+    <col min="25" max="25" width="8.6640625" style="16"/>
+    <col min="27" max="27" width="15.33203125" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" style="1"/>
+    <col min="29" max="29" width="17.5" style="6" customWidth="1"/>
+    <col min="30" max="30" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.45" customHeight="1">
-      <c r="B1" s="53" t="s">
+    <row r="1" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1209,21 +1208,21 @@
       <c r="W1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="X1" s="49" t="s">
+      <c r="X1" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="51" t="s">
+      <c r="Y1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="Z1" s="45" t="s">
+      <c r="Z1" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="AA1" s="46" t="s">
+      <c r="AA1" s="50" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="14.45" customHeight="1" thickBot="1">
-      <c r="B2" s="54"/>
+    <row r="2" spans="1:28" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="46"/>
       <c r="C2" s="7">
         <v>1</v>
       </c>
@@ -1287,12 +1286,12 @@
       <c r="W2" s="10">
         <v>29</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="47"/>
-    </row>
-    <row r="3" spans="1:28" ht="15.95">
+      <c r="X2" s="54"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="49"/>
+      <c r="AA2" s="51"/>
+    </row>
+    <row r="3" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
@@ -1323,11 +1322,11 @@
       <c r="AA3" s="38"/>
       <c r="AB3" s="43">
         <f>MAX(Y4:Y19)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28">
-      <c r="A4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" s="14" t="s">
@@ -1336,33 +1335,26 @@
       <c r="C4" s="15">
         <v>1</v>
       </c>
-      <c r="I4" s="16">
-        <v>1</v>
-      </c>
-      <c r="R4" s="15">
-        <v>1</v>
-      </c>
       <c r="W4" s="15"/>
       <c r="X4" s="17">
-        <f>SUM(C4:W4)</f>
+        <f t="shared" ref="X4:X19" si="0">SUM(C4:W4)</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="18">
+        <f t="shared" ref="Y4:Y19" si="1">SUM(C4:W4)</f>
+        <v>1</v>
+      </c>
+      <c r="Z4" s="41">
+        <f>4-Y4</f>
         <v>3</v>
-      </c>
-      <c r="Y4" s="18">
-        <f>SUM(C4:W4)</f>
-        <v>3</v>
-      </c>
-      <c r="Z4" s="41">
-        <f>AB3-X4</f>
-        <v>1</v>
       </c>
       <c r="AA4" s="19">
         <f>Y4-$AB$3</f>
-        <v>-1</v>
-      </c>
-      <c r="AB4" s="1"/>
-    </row>
-    <row r="5" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A5" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" s="20" t="s">
@@ -1371,535 +1363,375 @@
       <c r="C5" s="15">
         <v>1</v>
       </c>
-      <c r="K5" s="16">
-        <v>1</v>
-      </c>
-      <c r="U5" s="16">
-        <v>1</v>
-      </c>
       <c r="W5" s="15"/>
       <c r="X5" s="17">
-        <f>SUM(C5:W5)</f>
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y5" s="18">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="Z5" s="41">
+        <f t="shared" ref="Z5:Z19" si="2">4-Y5</f>
         <v>3</v>
       </c>
-      <c r="Y5" s="18">
-        <f>SUM(C5:W5)</f>
-        <v>3</v>
-      </c>
-      <c r="Z5" s="41">
-        <f>AB3-X5</f>
-        <v>1</v>
-      </c>
       <c r="AA5" s="19">
-        <f t="shared" ref="AA5:AA19" si="0">Y5-$AB$3</f>
-        <v>-1</v>
-      </c>
-      <c r="AB5" s="1"/>
-    </row>
-    <row r="6" spans="1:28">
-      <c r="A6" s="0">
+        <f t="shared" ref="AA5:AA19" si="3">Y5-$AB$3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C6" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D6" s="16">
-        <v>1</v>
-      </c>
-      <c r="S6" s="16">
-        <v>1</v>
-      </c>
       <c r="W6" s="15"/>
-      <c r="X6" s="17" t="n">
-        <f>SUM(C6:W6)</f>
-        <v>3.0</v>
-      </c>
-      <c r="Y6" s="18" t="n">
-        <f>SUM(C6:W6)</f>
-        <v>3.0</v>
-      </c>
-      <c r="Z6" s="41" t="n">
-        <f>AB3-X6</f>
-        <v>1.0</v>
-      </c>
-      <c r="AA6" s="19" t="n">
+      <c r="X6" s="17">
         <f t="shared" si="0"/>
-        <v>-1.0</v>
-      </c>
-      <c r="AB6" s="1"/>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="41">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AA6" s="19">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="16">
-        <v>1</v>
-      </c>
-      <c r="J7" s="16">
-        <v>1</v>
-      </c>
-      <c r="K7" s="16">
-        <v>1</v>
-      </c>
-      <c r="S7" s="16">
-        <v>1</v>
-      </c>
       <c r="W7" s="15"/>
       <c r="X7" s="17">
-        <f>SUM(C7:W7)</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Y7" s="18">
-        <f>SUM(C7:W7)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z7" s="41">
-        <f>AB3-X7</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AA7" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="1"/>
-    </row>
-    <row r="8" spans="1:28">
-      <c r="A8" s="0">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>5</v>
       </c>
       <c r="B8" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D8" s="16">
-        <v>1</v>
-      </c>
-      <c r="K8" s="16">
-        <v>1</v>
-      </c>
-      <c r="U8" s="16">
-        <v>1</v>
-      </c>
       <c r="W8" s="15"/>
-      <c r="X8" s="17" t="n">
-        <f>SUM(C8:W8)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Y8" s="18" t="n">
-        <f>SUM(C8:W8)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Z8" s="41" t="n">
-        <f>AB3-X8</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA8" s="19" t="n">
+      <c r="X8" s="17">
         <f t="shared" si="0"/>
-        <v>0.0</v>
-      </c>
-      <c r="AB8" s="1"/>
-    </row>
-    <row r="9" spans="1:28">
-      <c r="A9" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="41">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AA8" s="19">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>6</v>
       </c>
       <c r="B9" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D9" s="16">
-        <v>1</v>
-      </c>
-      <c r="N9" s="16">
-        <v>1</v>
-      </c>
-      <c r="U9" s="16">
-        <v>1</v>
-      </c>
       <c r="W9" s="15"/>
-      <c r="X9" s="17" t="n">
-        <f>SUM(C9:W9)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Y9" s="18" t="n">
-        <f>SUM(C9:W9)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Z9" s="41" t="n">
-        <f>AB3-X9</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA9" s="19" t="n">
+      <c r="X9" s="17">
         <f t="shared" si="0"/>
-        <v>0.0</v>
-      </c>
-      <c r="AB9" s="1"/>
-    </row>
-    <row r="10" spans="1:28">
-      <c r="A10" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="41">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AA9" s="19">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>7</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>1</v>
-      </c>
-      <c r="N10" s="16">
-        <v>1</v>
-      </c>
       <c r="W10" s="15"/>
-      <c r="X10" s="17" t="n">
-        <f>SUM(C10:W10)</f>
-        <v>3.0</v>
-      </c>
-      <c r="Y10" s="18" t="n">
-        <f>SUM(C10:W10)</f>
-        <v>3.0</v>
-      </c>
-      <c r="Z10" s="41" t="n">
-        <f>AB3-X10</f>
-        <v>1.0</v>
-      </c>
-      <c r="AA10" s="19" t="n">
+      <c r="X10" s="17">
         <f t="shared" si="0"/>
-        <v>-1.0</v>
-      </c>
-      <c r="AB10" s="1"/>
-    </row>
-    <row r="11" spans="1:28">
-      <c r="A11" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="41">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AA10" s="19">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>8</v>
       </c>
       <c r="B11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C11" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="K11" s="16">
-        <v>1</v>
-      </c>
-      <c r="V11" s="16">
-        <v>1</v>
-      </c>
       <c r="W11" s="15"/>
-      <c r="X11" s="17" t="n">
-        <f>SUM(C11:W11)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Y11" s="18" t="n">
-        <f>SUM(C11:W11)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Z11" s="41" t="n">
-        <f>AB3-X11</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA11" s="19" t="n">
+      <c r="X11" s="17">
         <f t="shared" si="0"/>
-        <v>0.0</v>
-      </c>
-      <c r="AB11" s="1"/>
-    </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="41">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AA11" s="19">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>9</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C12" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="16">
-        <v>1</v>
-      </c>
-      <c r="N12" s="16">
-        <v>1</v>
-      </c>
-      <c r="W12" s="15">
-        <v>1</v>
-      </c>
-      <c r="X12" s="17" t="n">
-        <f>SUM(C12:W12)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Y12" s="18" t="n">
-        <f>SUM(C12:W12)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Z12" s="41" t="n">
-        <f>AB3-X12</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA12" s="19" t="n">
+      <c r="W12" s="15"/>
+      <c r="X12" s="17">
         <f t="shared" si="0"/>
-        <v>0.0</v>
-      </c>
-      <c r="AB12" s="1"/>
-    </row>
-    <row r="13" spans="1:28">
-      <c r="A13" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="41">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AA12" s="19">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>10</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C13" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="I13" s="16">
-        <v>1</v>
-      </c>
-      <c r="T13" s="16">
-        <v>1</v>
-      </c>
       <c r="W13" s="15"/>
-      <c r="X13" s="17" t="n">
-        <f>SUM(C13:W13)</f>
-        <v>3.0</v>
-      </c>
-      <c r="Y13" s="18" t="n">
-        <f>SUM(C13:W13)</f>
-        <v>3.0</v>
-      </c>
-      <c r="Z13" s="41" t="n">
-        <f>AB3-X13</f>
-        <v>1.0</v>
-      </c>
-      <c r="AA13" s="19" t="n">
+      <c r="X13" s="17">
         <f t="shared" si="0"/>
-        <v>-1.0</v>
-      </c>
-      <c r="AB13" s="1"/>
-    </row>
-    <row r="14" spans="1:28">
-      <c r="A14" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="41">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AA13" s="19">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>11</v>
       </c>
       <c r="B14" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C14" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="N14" s="16">
-        <v>1</v>
-      </c>
-      <c r="W14" s="15">
-        <v>1</v>
-      </c>
-      <c r="X14" s="17" t="n">
-        <f>SUM(C14:W14)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Y14" s="18" t="n">
-        <f>SUM(C14:W14)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Z14" s="41" t="n">
-        <f>AB3-X14</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA14" s="19" t="n">
+      <c r="W14" s="15"/>
+      <c r="X14" s="17">
         <f t="shared" si="0"/>
-        <v>0.0</v>
-      </c>
-      <c r="AB14" s="1"/>
-    </row>
-    <row r="15" spans="1:28">
-      <c r="A15" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="41">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AA14" s="19">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>12</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="16">
-        <v>1</v>
-      </c>
-      <c r="S15" s="16">
-        <v>1</v>
-      </c>
       <c r="W15" s="15"/>
-      <c r="X15" s="17" t="n">
-        <f>SUM(C15:W15)</f>
-        <v>3.0</v>
-      </c>
-      <c r="Y15" s="18" t="n">
-        <f>SUM(C15:W15)</f>
-        <v>3.0</v>
-      </c>
-      <c r="Z15" s="41" t="n">
-        <f>AB3-X15</f>
-        <v>1.0</v>
-      </c>
-      <c r="AA15" s="19" t="n">
+      <c r="X15" s="17">
         <f t="shared" si="0"/>
-        <v>-1.0</v>
-      </c>
-      <c r="AB15" s="1"/>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="A16" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z15" s="41">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AA15" s="19">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>13</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="16">
-        <v>1</v>
-      </c>
-      <c r="N16" s="16">
-        <v>1</v>
-      </c>
-      <c r="W16" s="15">
-        <v>1</v>
-      </c>
+      <c r="W16" s="15"/>
       <c r="X16" s="17">
-        <f>SUM(C16:W16)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Y16" s="18">
-        <f>SUM(C16:W16)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z16" s="41">
-        <f>AB3-X16</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AA16" s="19">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="AB16" s="1"/>
-    </row>
-    <row r="17" spans="1:28">
-      <c r="A17" s="0">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>14</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="16">
-        <v>1</v>
-      </c>
-      <c r="N17" s="16">
-        <v>1</v>
-      </c>
-      <c r="W17" s="15">
-        <v>1</v>
-      </c>
+      <c r="W17" s="15"/>
       <c r="X17" s="17">
-        <f>SUM(C17:W17)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Y17" s="18">
-        <f>SUM(C17:W17)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z17" s="41">
-        <f>AB3-X17</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AA17" s="19">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="AB17" s="1"/>
-    </row>
-    <row r="18" spans="1:28">
-      <c r="A18" s="0">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>15</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="16">
-        <v>1</v>
-      </c>
-      <c r="T18" s="16">
-        <v>1</v>
-      </c>
-      <c r="W18" s="15">
-        <v>1</v>
-      </c>
+      <c r="W18" s="15"/>
       <c r="X18" s="17">
-        <f>SUM(C18:W18)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Y18" s="18">
-        <f>SUM(C18:W18)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z18" s="41">
-        <f>AB3-X18</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AA18" s="19">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="AB18" s="1"/>
-    </row>
-    <row r="19" spans="1:28">
-      <c r="A19" s="0">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>16</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="15">
-        <v>1</v>
-      </c>
-      <c r="N19" s="16">
-        <v>1</v>
-      </c>
-      <c r="S19" s="16">
-        <v>1</v>
-      </c>
       <c r="W19" s="15"/>
       <c r="X19" s="17">
-        <f>SUM(C19:W19)</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="Y19" s="18">
-        <f>SUM(C19:W19)</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="Z19" s="41">
-        <f>AB3-X19</f>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="AA19" s="19">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-      <c r="AB19" s="1"/>
-    </row>
-    <row r="20" spans="1:28" ht="14.45" customHeight="1">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="21" t="s">
         <v>28</v>
       </c>
@@ -1925,1101 +1757,893 @@
       <c r="V20" s="23"/>
       <c r="W20" s="23"/>
       <c r="X20" s="24"/>
-      <c r="Y20" s="48"/>
-      <c r="Z20" s="48"/>
-      <c r="AA20" s="48"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
       <c r="AB20" s="44">
         <f>MAX(Y21:Y36)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28">
-      <c r="A21" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="16">
-        <v>1</v>
-      </c>
-      <c r="K21" s="16">
+      <c r="C21" s="15">
         <v>1</v>
       </c>
       <c r="W21" s="15"/>
       <c r="X21" s="17">
-        <f>SUM(C21:W21)</f>
-        <v>2</v>
+        <f t="shared" ref="X21:X36" si="4">SUM(C21:W21)</f>
+        <v>1</v>
       </c>
       <c r="Y21" s="18">
-        <f>SUM(C21:W21)</f>
-        <v>2</v>
+        <f t="shared" ref="Y21:Y36" si="5">SUM(C21:W21)</f>
+        <v>1</v>
       </c>
       <c r="Z21" s="41">
-        <f>AB20-X21</f>
-        <v>0</v>
+        <f>4-Y21</f>
+        <v>3</v>
       </c>
       <c r="AA21" s="19">
         <f>Y21-$AB$20</f>
         <v>0</v>
       </c>
-      <c r="AB21" s="1"/>
-    </row>
-    <row r="22" spans="1:28">
-      <c r="A22" s="0">
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="16">
-        <v>1</v>
-      </c>
-      <c r="N22" s="16">
-        <v>1</v>
-      </c>
       <c r="W22" s="15"/>
       <c r="X22" s="17">
-        <f>SUM(C22:W22)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y22" s="18">
-        <f>SUM(C22:W22)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z22" s="41">
-        <f>AB20-X22</f>
-        <v>0</v>
+        <f t="shared" ref="Z22:Z36" si="6">4-Y22</f>
+        <v>4</v>
       </c>
       <c r="AA22" s="19">
-        <f t="shared" ref="AA22:AA36" si="1">Y22-$AB$20</f>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="1"/>
-    </row>
-    <row r="23" spans="1:28">
-      <c r="A23" s="0">
+        <f t="shared" ref="AA22:AA36" si="7">Y22-$AB$20</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="16">
-        <v>1</v>
-      </c>
-      <c r="N23" s="16">
-        <v>1</v>
-      </c>
       <c r="W23" s="15"/>
       <c r="X23" s="17">
-        <f>SUM(C23:W23)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y23" s="18">
-        <f>SUM(C23:W23)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z23" s="41">
-        <f>AB20-X23</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="AA23" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="1"/>
-    </row>
-    <row r="24" spans="1:28">
-      <c r="A24" s="0">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>4</v>
       </c>
       <c r="B24" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="16">
-        <v>1</v>
-      </c>
-      <c r="R24" s="15">
-        <v>1</v>
-      </c>
       <c r="W24" s="15"/>
       <c r="X24" s="17">
-        <f>SUM(C24:W24)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y24" s="18">
-        <f>SUM(C24:W24)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z24" s="41">
-        <f>AB20-X24</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="AA24" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="1"/>
-    </row>
-    <row r="25" spans="1:28">
-      <c r="A25" s="0">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>5</v>
       </c>
       <c r="B25" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="Q25" s="16">
-        <v>1</v>
-      </c>
-      <c r="S25" s="16">
-        <v>1</v>
-      </c>
       <c r="W25" s="15"/>
       <c r="X25" s="17">
-        <f>SUM(C25:W25)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y25" s="18">
-        <f>SUM(C25:W25)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z25" s="41">
-        <f>AB20-X25</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="AA25" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="1"/>
-    </row>
-    <row r="26" spans="1:28">
-      <c r="A26" s="0">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>6</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="16">
-        <v>1</v>
-      </c>
-      <c r="R26" s="15">
-        <v>1</v>
-      </c>
       <c r="W26" s="15"/>
       <c r="X26" s="17">
-        <f>SUM(C26:W26)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y26" s="18">
-        <f>SUM(C26:W26)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z26" s="41">
-        <f>AB20-X26</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="AA26" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="1"/>
-    </row>
-    <row r="27" spans="1:28">
-      <c r="A27" s="0">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>7</v>
       </c>
       <c r="B27" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="16">
-        <v>1</v>
-      </c>
-      <c r="S27" s="16">
-        <v>1</v>
-      </c>
       <c r="W27" s="15"/>
       <c r="X27" s="17">
-        <f>SUM(C27:W27)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y27" s="18">
-        <f>SUM(C27:W27)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z27" s="41">
-        <f>AB20-X27</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="AA27" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1"/>
-    </row>
-    <row r="28" spans="1:28">
-      <c r="A28" s="0">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>8</v>
       </c>
       <c r="B28" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="C28" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H28" s="15">
-        <v>1</v>
-      </c>
       <c r="W28" s="15"/>
-      <c r="X28" s="17" t="n">
-        <f>SUM(C28:W28)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Y28" s="18" t="n">
-        <f>SUM(C28:W28)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Z28" s="41" t="n">
-        <f>AB20-X28</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA28" s="19" t="n">
-        <f t="shared" si="1"/>
-        <v>0.0</v>
-      </c>
-      <c r="AB28" s="1"/>
-    </row>
-    <row r="29" spans="1:28">
-      <c r="A29" s="0">
+      <c r="X28" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z28" s="41">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AA28" s="19">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>9</v>
       </c>
       <c r="B29" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="I29" s="16">
-        <v>1</v>
-      </c>
-      <c r="S29" s="16">
-        <v>1</v>
-      </c>
       <c r="W29" s="15"/>
       <c r="X29" s="17">
-        <f>SUM(C29:W29)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y29" s="18">
-        <f>SUM(C29:W29)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z29" s="41">
-        <f>AB20-X29</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="AA29" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="1"/>
-    </row>
-    <row r="30" spans="1:28">
-      <c r="A30" s="0">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>10</v>
       </c>
       <c r="B30" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="I30" s="16">
-        <v>1</v>
-      </c>
-      <c r="U30" s="16">
-        <v>1</v>
-      </c>
       <c r="W30" s="15"/>
       <c r="X30" s="17">
-        <f>SUM(C30:W30)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y30" s="18">
-        <f>SUM(C30:W30)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z30" s="41">
-        <f>AB20-X30</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="AA30" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="1"/>
-    </row>
-    <row r="31" spans="1:28">
-      <c r="A31" s="0">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>11</v>
       </c>
       <c r="B31" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I31" s="16">
-        <v>1</v>
-      </c>
-      <c r="S31" s="16">
-        <v>1</v>
-      </c>
       <c r="W31" s="15"/>
       <c r="X31" s="17">
-        <f>SUM(C31:W31)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y31" s="18">
-        <f>SUM(C31:W31)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z31" s="41">
-        <f>AB20-X31</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="AA31" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="1"/>
-    </row>
-    <row r="32" spans="1:28">
-      <c r="A32" s="0">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>12</v>
       </c>
       <c r="B32" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="I32" s="16">
-        <v>1</v>
-      </c>
-      <c r="U32" s="16">
-        <v>1</v>
-      </c>
       <c r="W32" s="15"/>
       <c r="X32" s="17">
-        <f>SUM(C32:W32)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y32" s="18">
-        <f>SUM(C32:W32)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z32" s="41">
-        <f>AB20-X32</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="AA32" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="1"/>
-    </row>
-    <row r="33" spans="1:28">
-      <c r="A33" s="0">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>13</v>
       </c>
       <c r="B33" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="C33" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="Q33" s="16">
-        <v>1</v>
-      </c>
       <c r="W33" s="15"/>
-      <c r="X33" s="17" t="n">
-        <f>SUM(C33:W33)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Y33" s="18" t="n">
-        <f>SUM(C33:W33)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Z33" s="41" t="n">
-        <f>AB20-X33</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA33" s="19" t="n">
-        <f t="shared" si="1"/>
-        <v>0.0</v>
-      </c>
-      <c r="AB33" s="1"/>
-    </row>
-    <row r="34" spans="1:28">
-      <c r="A34" s="0">
+      <c r="X33" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y33" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z33" s="41">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AA33" s="19">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>14</v>
       </c>
       <c r="B34" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="I34" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="16">
-        <v>1</v>
-      </c>
       <c r="W34" s="15"/>
       <c r="X34" s="17">
-        <f>SUM(C34:W34)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y34" s="18">
-        <f>SUM(C34:W34)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z34" s="41">
-        <f>AB20-X34</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="AA34" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="1"/>
-    </row>
-    <row r="35" spans="1:28">
-      <c r="A35" s="0">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>15</v>
       </c>
       <c r="B35" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q35" s="16">
-        <v>1</v>
-      </c>
       <c r="W35" s="15"/>
       <c r="X35" s="17">
-        <f>SUM(C35:W35)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y35" s="18">
-        <f>SUM(C35:W35)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z35" s="41">
-        <f>AB20-X35</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="AA35" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="1"/>
-    </row>
-    <row r="36" spans="1:28">
-      <c r="A36" s="0">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>16</v>
       </c>
       <c r="B36" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="J36" s="16">
-        <v>1</v>
-      </c>
-      <c r="W36" s="15">
-        <v>1</v>
-      </c>
+      <c r="W36" s="15"/>
       <c r="X36" s="17">
-        <f>SUM(C36:W36)</f>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="Y36" s="18">
-        <f>SUM(C36:W36)</f>
-        <v>2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="Z36" s="41">
-        <f>AB20-X36</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="AA36" s="19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="1"/>
-    </row>
-    <row r="37" spans="1:28">
+        <f t="shared" si="7"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B37" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="55"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="56"/>
-      <c r="K37" s="56"/>
-      <c r="L37" s="56"/>
-      <c r="M37" s="56"/>
-      <c r="N37" s="56"/>
-      <c r="O37" s="56"/>
-      <c r="P37" s="56"/>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
+      <c r="K37" s="48"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
       <c r="AB37" s="44">
         <f>MAX(Y38:Y53)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28">
-      <c r="A38" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>1</v>
       </c>
       <c r="B38" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="I38" s="16">
-        <v>1</v>
-      </c>
-      <c r="V38" s="16">
+      <c r="C38" s="15">
         <v>1</v>
       </c>
       <c r="W38" s="15"/>
       <c r="X38" s="17">
-        <f>SUM(C38:W38)</f>
-        <v>2</v>
+        <f t="shared" ref="X38:X53" si="8">SUM(C38:W38)</f>
+        <v>1</v>
       </c>
       <c r="Y38" s="18">
-        <f>SUM(C38:W38)</f>
-        <v>2</v>
+        <f t="shared" ref="Y38:Y53" si="9">SUM(C38:W38)</f>
+        <v>1</v>
       </c>
       <c r="Z38" s="41">
-        <f>AB37-X38</f>
-        <v>0</v>
+        <f>4-Y38</f>
+        <v>3</v>
       </c>
       <c r="AA38" s="19">
         <f>Y38-$AB$37</f>
         <v>0</v>
       </c>
-      <c r="AB38" s="1"/>
-    </row>
-    <row r="39" spans="1:28">
-      <c r="A39" s="0">
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>2</v>
       </c>
       <c r="B39" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="J39" s="16">
-        <v>1</v>
-      </c>
-      <c r="V39" s="16">
+      <c r="C39" s="15">
         <v>1</v>
       </c>
       <c r="W39" s="15"/>
       <c r="X39" s="17">
-        <f>SUM(C39:W39)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="Y39" s="18">
-        <f>SUM(C39:W39)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
       </c>
       <c r="Z39" s="41">
-        <f>AB37-X39</f>
-        <v>0</v>
+        <f t="shared" ref="Z39:Z53" si="10">4-Y39</f>
+        <v>3</v>
       </c>
       <c r="AA39" s="19">
-        <f t="shared" ref="AA39:AA53" si="2">Y39-$AB$37</f>
-        <v>0</v>
-      </c>
-      <c r="AB39" s="1"/>
-    </row>
-    <row r="40" spans="1:28">
-      <c r="A40" s="0">
+        <f t="shared" ref="AA39:AA53" si="11">Y39-$AB$37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>3</v>
       </c>
       <c r="B40" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="I40" s="16">
-        <v>1</v>
-      </c>
-      <c r="W40" s="15">
-        <v>1</v>
-      </c>
+      <c r="W40" s="15"/>
       <c r="X40" s="17">
-        <f>SUM(C40:W40)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Y40" s="18">
-        <f>SUM(C40:W40)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z40" s="41">
-        <f>AB37-X40</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="AA40" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB40" s="1"/>
-    </row>
-    <row r="41" spans="1:28">
-      <c r="A41" s="0">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>4</v>
       </c>
       <c r="B41" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="J41" s="16">
-        <v>1</v>
-      </c>
-      <c r="W41" s="15">
-        <v>1</v>
-      </c>
+      <c r="W41" s="15"/>
       <c r="X41" s="17">
-        <f>SUM(C41:W41)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Y41" s="18">
-        <f>SUM(C41:W41)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z41" s="41">
-        <f>AB37-X41</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="AA41" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB41" s="1"/>
-    </row>
-    <row r="42" spans="1:28">
-      <c r="A42" s="0">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>5</v>
       </c>
       <c r="B42" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="N42" s="16">
-        <v>1</v>
-      </c>
-      <c r="V42" s="16">
-        <v>1</v>
-      </c>
       <c r="W42" s="15"/>
       <c r="X42" s="17">
-        <f>SUM(C42:W42)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Y42" s="18">
-        <f>SUM(C42:W42)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z42" s="41">
-        <f>AB37-X42</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="AA42" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB42" s="1"/>
-    </row>
-    <row r="43" spans="1:28">
-      <c r="A43" s="0">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>6</v>
       </c>
       <c r="B43" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C43" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="J43" s="16">
-        <v>1</v>
-      </c>
       <c r="W43" s="15"/>
-      <c r="X43" s="17" t="n">
-        <f>SUM(C43:W43)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Y43" s="18" t="n">
-        <f>SUM(C43:W43)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Z43" s="41" t="n">
-        <f>AB37-X43</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA43" s="19" t="n">
-        <f t="shared" si="2"/>
-        <v>0.0</v>
-      </c>
-      <c r="AB43" s="1"/>
-    </row>
-    <row r="44" spans="1:28">
-      <c r="A44" s="0">
+      <c r="X43" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y43" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z43" s="41">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AA43" s="19">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>7</v>
       </c>
       <c r="B44" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C44" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="Q44" s="16">
-        <v>1</v>
-      </c>
       <c r="W44" s="15"/>
-      <c r="X44" s="17" t="n">
-        <f>SUM(C44:W44)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Y44" s="18" t="n">
-        <f>SUM(C44:W44)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Z44" s="41" t="n">
-        <f>AB37-X44</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA44" s="19" t="n">
-        <f t="shared" si="2"/>
-        <v>0.0</v>
-      </c>
-      <c r="AB44" s="1"/>
-    </row>
-    <row r="45" spans="1:28" ht="14.45" customHeight="1">
-      <c r="A45" s="0">
+      <c r="X44" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y44" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z44" s="41">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AA44" s="19">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>8</v>
       </c>
       <c r="B45" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C45" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="U45" s="16">
-        <v>1</v>
-      </c>
       <c r="W45" s="15"/>
-      <c r="X45" s="17" t="n">
-        <f>SUM(C45:W45)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Y45" s="18" t="n">
-        <f>SUM(C45:W45)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Z45" s="41" t="n">
-        <f>AB37-X45</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA45" s="19" t="n">
-        <f t="shared" si="2"/>
-        <v>0.0</v>
-      </c>
-      <c r="AB45" s="1"/>
-    </row>
-    <row r="46" spans="1:28">
-      <c r="A46" s="0">
+      <c r="X45" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="41">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AA45" s="19">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>9</v>
       </c>
       <c r="B46" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="C46" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="Q46" s="16">
-        <v>1</v>
-      </c>
       <c r="W46" s="15"/>
-      <c r="X46" s="17" t="n">
-        <f>SUM(C46:W46)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Y46" s="18" t="n">
-        <f>SUM(C46:W46)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Z46" s="41" t="n">
-        <f>AB37-X46</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA46" s="19" t="n">
-        <f t="shared" si="2"/>
-        <v>0.0</v>
-      </c>
-      <c r="AB46" s="1"/>
-    </row>
-    <row r="47" spans="1:28">
-      <c r="A47" s="0">
+      <c r="X46" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="41">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AA46" s="19">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>10</v>
       </c>
       <c r="B47" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C47" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="Q47" s="16">
-        <v>1</v>
-      </c>
       <c r="W47" s="15"/>
-      <c r="X47" s="17" t="n">
-        <f>SUM(C47:W47)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Y47" s="18" t="n">
-        <f>SUM(C47:W47)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Z47" s="41" t="n">
-        <f>AB37-X47</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA47" s="19" t="n">
-        <f t="shared" si="2"/>
-        <v>0.0</v>
-      </c>
-      <c r="AB47" s="1"/>
-    </row>
-    <row r="48" spans="1:28">
-      <c r="A48" s="0">
+      <c r="X47" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="41">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AA47" s="19">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>11</v>
       </c>
       <c r="B48" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C48" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="Q48" s="16">
-        <v>1</v>
-      </c>
       <c r="W48" s="15"/>
-      <c r="X48" s="17" t="n">
-        <f>SUM(C48:W48)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Y48" s="18" t="n">
-        <f>SUM(C48:W48)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Z48" s="41" t="n">
-        <f>AB37-X48</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA48" s="19" t="n">
-        <f t="shared" si="2"/>
-        <v>0.0</v>
-      </c>
-      <c r="AB48" s="1"/>
-    </row>
-    <row r="49" spans="1:28">
-      <c r="A49" s="0">
+      <c r="X48" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="41">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AA48" s="19">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>12</v>
       </c>
       <c r="B49" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C49" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="S49" s="16">
-        <v>1</v>
-      </c>
       <c r="W49" s="15"/>
-      <c r="X49" s="17" t="n">
-        <f>SUM(C49:W49)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Y49" s="18" t="n">
-        <f>SUM(C49:W49)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Z49" s="41" t="n">
-        <f>AB37-X49</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA49" s="19" t="n">
-        <f t="shared" si="2"/>
-        <v>0.0</v>
-      </c>
-      <c r="AB49" s="1"/>
-    </row>
-    <row r="50" spans="1:28">
-      <c r="A50" s="0">
+      <c r="X49" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="41">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AA49" s="19">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>13</v>
       </c>
       <c r="B50" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="16">
-        <v>1</v>
-      </c>
-      <c r="U50" s="16">
-        <v>1</v>
-      </c>
       <c r="W50" s="15"/>
       <c r="X50" s="17">
-        <f>SUM(C50:W50)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Y50" s="18">
-        <f>SUM(C50:W50)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z50" s="41">
-        <f>AB37-X50</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="AA50" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB50" s="1"/>
-    </row>
-    <row r="51" spans="1:28">
-      <c r="A51" s="0">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>14</v>
       </c>
       <c r="B51" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="R51" s="15">
-        <v>1</v>
-      </c>
-      <c r="W51" s="15">
-        <v>1</v>
-      </c>
+      <c r="W51" s="15"/>
       <c r="X51" s="17">
-        <f>SUM(C51:W51)</f>
-        <v>2</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Y51" s="18">
-        <f>SUM(C51:W51)</f>
-        <v>2</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z51" s="41">
-        <f>AB37-X51</f>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="AA51" s="19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB51" s="1"/>
-    </row>
-    <row r="52" spans="1:28">
-      <c r="A52" s="0">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>15</v>
       </c>
       <c r="B52" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="C52" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="I52" s="16">
-        <v>1</v>
-      </c>
       <c r="W52" s="15"/>
-      <c r="X52" s="17" t="n">
-        <f>SUM(C52:W52)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Y52" s="18" t="n">
-        <f>SUM(C52:W52)</f>
-        <v>2.0</v>
-      </c>
-      <c r="Z52" s="41" t="n">
-        <f>AB37-X52</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA52" s="19" t="n">
-        <f t="shared" si="2"/>
-        <v>0.0</v>
-      </c>
-      <c r="AB52" s="1"/>
-    </row>
-    <row r="53" spans="1:28">
-      <c r="A53" s="0">
+      <c r="X52" s="17">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="41">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AA52" s="19">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>16</v>
       </c>
       <c r="B53" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="H53" s="15">
-        <v>1</v>
-      </c>
       <c r="W53" s="15"/>
       <c r="X53" s="17">
-        <f>SUM(C53:W53)</f>
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="Y53" s="18">
-        <f>SUM(C53:W53)</f>
-        <v>1</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="Z53" s="41">
-        <f>AB37-X53</f>
-        <v>1</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="AA53" s="19">
-        <f t="shared" si="2"/>
-        <v>-1</v>
-      </c>
-      <c r="AB53" s="1"/>
-    </row>
-    <row r="54" spans="1:28">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B54" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="55"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="56"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="56"/>
-      <c r="Q54" s="56"/>
-      <c r="R54" s="56"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="56"/>
-      <c r="U54" s="56"/>
-      <c r="V54" s="56"/>
-      <c r="W54" s="56"/>
-      <c r="X54" s="56"/>
-      <c r="Y54" s="56"/>
-      <c r="Z54" s="56"/>
-      <c r="AA54" s="56"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="48"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="48"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="48"/>
+      <c r="W54" s="48"/>
+      <c r="X54" s="48"/>
+      <c r="Y54" s="48"/>
+      <c r="Z54" s="48"/>
+      <c r="AA54" s="48"/>
       <c r="AB54" s="44">
         <f>MAX(Y55:Y70)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28">
-      <c r="A55" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>1</v>
       </c>
       <c r="B55" s="39" t="s">
@@ -3028,580 +2652,400 @@
       <c r="C55" s="15">
         <v>1</v>
       </c>
-      <c r="I55" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="16">
-        <v>1</v>
-      </c>
       <c r="W55" s="15"/>
       <c r="X55" s="17">
-        <f>SUM(C55:W55)</f>
+        <f t="shared" ref="X55:X70" si="12">SUM(C55:W55)</f>
+        <v>1</v>
+      </c>
+      <c r="Y55" s="18">
+        <f t="shared" ref="Y55:Y70" si="13">SUM(C55:W55)</f>
+        <v>1</v>
+      </c>
+      <c r="Z55" s="41">
+        <f>4-Y55</f>
         <v>3</v>
-      </c>
-      <c r="Y55" s="18">
-        <f>SUM(C55:W55)</f>
-        <v>3</v>
-      </c>
-      <c r="Z55" s="41">
-        <f>AB54-X55</f>
-        <v>1</v>
       </c>
       <c r="AA55" s="19">
         <f>Y55-AB$54</f>
-        <v>-1</v>
-      </c>
-      <c r="AB55" s="1"/>
-    </row>
-    <row r="56" spans="1:28">
-      <c r="A56" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>2</v>
       </c>
       <c r="B56" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C56" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="D56" s="16">
-        <v>1</v>
-      </c>
-      <c r="J56" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="16">
-        <v>1</v>
-      </c>
       <c r="W56" s="15"/>
-      <c r="X56" s="17" t="n">
-        <f>SUM(C56:W56)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Y56" s="18" t="n">
-        <f>SUM(C56:W56)</f>
-        <v>4.0</v>
-      </c>
-      <c r="Z56" s="41" t="n">
-        <f>AB54-X56</f>
-        <v>0.0</v>
-      </c>
-      <c r="AA56" s="19" t="n">
-        <f t="shared" ref="AA56:AA70" si="3">Y56-AB$54</f>
-        <v>0.0</v>
-      </c>
-      <c r="AB56" s="1"/>
-    </row>
-    <row r="57" spans="1:28">
-      <c r="A57" s="0">
+      <c r="X56" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y56" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z56" s="41">
+        <f t="shared" ref="Z56:Z70" si="14">4-Y56</f>
+        <v>4</v>
+      </c>
+      <c r="AA56" s="19">
+        <f t="shared" ref="AA56:AA70" si="15">Y56-AB$54</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>3</v>
       </c>
       <c r="B57" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="D57" s="16">
-        <v>1</v>
-      </c>
-      <c r="I57" s="16">
-        <v>1</v>
-      </c>
-      <c r="S57" s="16">
-        <v>1</v>
-      </c>
       <c r="W57" s="15"/>
       <c r="X57" s="17">
-        <f>SUM(C57:W57)</f>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Y57" s="18">
-        <f>SUM(C57:W57)</f>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z57" s="41">
-        <f>AB54-X57</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AA57" s="19">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="AB57" s="1"/>
-    </row>
-    <row r="58" spans="1:28">
-      <c r="A58" s="0">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>4</v>
       </c>
       <c r="B58" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="16">
-        <v>1</v>
-      </c>
-      <c r="N58" s="16">
-        <v>1</v>
-      </c>
-      <c r="S58" s="16">
-        <v>1</v>
-      </c>
-      <c r="W58" s="15">
-        <v>1</v>
-      </c>
+      <c r="W58" s="15"/>
       <c r="X58" s="17">
-        <f>SUM(C58:W58)</f>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Y58" s="18">
-        <f>SUM(C58:W58)</f>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z58" s="41">
-        <f>AB54-X58</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AA58" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB58" s="1"/>
-    </row>
-    <row r="59" spans="1:28">
-      <c r="A59" s="0">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A59">
         <v>5</v>
       </c>
       <c r="B59" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="16">
-        <v>1</v>
-      </c>
-      <c r="J59" s="16">
-        <v>1</v>
-      </c>
-      <c r="S59" s="16">
-        <v>1</v>
-      </c>
       <c r="W59" s="15"/>
       <c r="X59" s="17">
-        <f>SUM(C59:W59)</f>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Y59" s="18">
-        <f>SUM(C59:W59)</f>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z59" s="41">
-        <f>AB54-X59</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AA59" s="19">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="AB59" s="1"/>
-    </row>
-    <row r="60" spans="1:28">
-      <c r="A60" s="0">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A60">
         <v>6</v>
       </c>
       <c r="B60" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E60" s="16">
-        <v>1</v>
-      </c>
-      <c r="J60" s="16">
-        <v>1</v>
-      </c>
-      <c r="K60" s="16">
-        <v>1</v>
-      </c>
       <c r="W60" s="15"/>
       <c r="X60" s="17">
-        <f>SUM(C60:W60)</f>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Y60" s="18">
-        <f>SUM(C60:W60)</f>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z60" s="41">
-        <f>AB54-X60</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AA60" s="19">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="AB60" s="1"/>
-    </row>
-    <row r="61" spans="1:28">
-      <c r="A61" s="0">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A61">
         <v>7</v>
       </c>
       <c r="B61" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="E61" s="16">
-        <v>1</v>
-      </c>
-      <c r="I61" s="16">
-        <v>1</v>
-      </c>
-      <c r="O61" s="16">
-        <v>1</v>
-      </c>
-      <c r="W61" s="15">
-        <v>1</v>
-      </c>
+      <c r="W61" s="15"/>
       <c r="X61" s="17">
-        <f>SUM(C61:W61)</f>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Y61" s="18">
-        <f>SUM(C61:W61)</f>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z61" s="41">
-        <f>AB54-X61</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AA61" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB61" s="1"/>
-    </row>
-    <row r="62" spans="1:28">
-      <c r="A62" s="0">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A62">
         <v>8</v>
       </c>
       <c r="B62" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E62" s="16">
-        <v>1</v>
-      </c>
-      <c r="I62" s="16">
-        <v>1</v>
-      </c>
-      <c r="K62" s="16">
-        <v>1</v>
-      </c>
-      <c r="V62" s="16">
-        <v>1</v>
-      </c>
       <c r="W62" s="15"/>
       <c r="X62" s="17">
-        <f>SUM(C62:W62)</f>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Y62" s="18">
-        <f>SUM(C62:W62)</f>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z62" s="41">
-        <f>AB54-X62</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AA62" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB62" s="1"/>
-    </row>
-    <row r="63" spans="1:28">
-      <c r="A63" s="0">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A63">
         <v>9</v>
       </c>
       <c r="B63" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="H63" s="15">
-        <v>1</v>
-      </c>
-      <c r="K63" s="16">
-        <v>1</v>
-      </c>
-      <c r="U63" s="16">
-        <v>1</v>
-      </c>
-      <c r="W63" s="15">
-        <v>1</v>
-      </c>
+      <c r="W63" s="15"/>
       <c r="X63" s="17">
-        <f>SUM(C63:W63)</f>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Y63" s="18">
-        <f>SUM(C63:W63)</f>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z63" s="41">
-        <f>AB54-X63</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AA63" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB63" s="1"/>
-    </row>
-    <row r="64" spans="1:28">
-      <c r="A64" s="0">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="A64">
         <v>10</v>
       </c>
       <c r="B64" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="16">
-        <v>1</v>
-      </c>
-      <c r="I64" s="16">
-        <v>1</v>
-      </c>
-      <c r="O64" s="16">
-        <v>1</v>
-      </c>
-      <c r="V64" s="16">
-        <v>1</v>
-      </c>
       <c r="W64" s="15"/>
       <c r="X64" s="17">
-        <f>SUM(C64:W64)</f>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Y64" s="18">
-        <f>SUM(C64:W64)</f>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z64" s="41">
-        <f>AB54-X64</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AA64" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB64" s="1"/>
-    </row>
-    <row r="65" spans="1:28">
-      <c r="A65" s="0">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A65">
         <v>11</v>
       </c>
       <c r="B65" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C65" t="n" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="U65" s="16">
-        <v>1</v>
-      </c>
-      <c r="V65" s="16">
-        <v>1</v>
-      </c>
       <c r="W65" s="15"/>
-      <c r="X65" s="17" t="n">
-        <f>SUM(C65:W65)</f>
-        <v>3.0</v>
-      </c>
-      <c r="Y65" s="18" t="n">
-        <f>SUM(C65:W65)</f>
-        <v>3.0</v>
-      </c>
-      <c r="Z65" s="41" t="n">
-        <f>AB54-X65</f>
-        <v>1.0</v>
-      </c>
-      <c r="AA65" s="19" t="n">
-        <f t="shared" si="3"/>
-        <v>-1.0</v>
-      </c>
-      <c r="AB65" s="1"/>
-    </row>
-    <row r="66" spans="1:28">
-      <c r="A66" s="0">
+      <c r="X65" s="17">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="18">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z65" s="41">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AA65" s="19">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A66">
         <v>12</v>
       </c>
       <c r="B66" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="I66" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q66" s="16">
-        <v>1</v>
-      </c>
-      <c r="S66" s="16">
-        <v>1</v>
-      </c>
-      <c r="W66" s="15">
-        <v>1</v>
-      </c>
+      <c r="W66" s="15"/>
       <c r="X66" s="17">
-        <f>SUM(C66:W66)</f>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Y66" s="18">
-        <f>SUM(C66:W66)</f>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z66" s="41">
-        <f>AB54-X66</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AA66" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB66" s="1"/>
-    </row>
-    <row r="67" spans="1:28">
-      <c r="A67" s="0">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A67">
         <v>13</v>
       </c>
       <c r="B67" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="G67" s="16">
-        <v>1</v>
-      </c>
-      <c r="I67" s="16">
-        <v>1</v>
-      </c>
-      <c r="T67" s="16">
-        <v>1</v>
-      </c>
-      <c r="W67" s="15">
-        <v>1</v>
-      </c>
+      <c r="W67" s="15"/>
       <c r="X67" s="17">
-        <f>SUM(C67:W67)</f>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Y67" s="18">
-        <f>SUM(C67:W67)</f>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z67" s="41">
-        <f>AB54-X67</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AA67" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB67" s="1"/>
-    </row>
-    <row r="68" spans="1:28">
-      <c r="A68" s="0">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A68">
         <v>14</v>
       </c>
       <c r="B68" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="J68" s="16">
-        <v>1</v>
-      </c>
-      <c r="Q68" s="16">
-        <v>1</v>
-      </c>
-      <c r="V68" s="16">
-        <v>1</v>
-      </c>
       <c r="W68" s="15"/>
       <c r="X68" s="17">
-        <f>SUM(C68:W68)</f>
-        <v>3</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Y68" s="18">
-        <f>SUM(C68:W68)</f>
-        <v>3</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z68" s="41">
-        <f>AB54-X68</f>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AA68" s="19">
-        <f t="shared" si="3"/>
-        <v>-1</v>
-      </c>
-      <c r="AB68" s="1"/>
-    </row>
-    <row r="69" spans="1:28">
-      <c r="A69" s="0">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A69">
         <v>15</v>
       </c>
       <c r="B69" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="G69" s="16">
-        <v>1</v>
-      </c>
-      <c r="I69" s="16">
-        <v>1</v>
-      </c>
-      <c r="S69" s="16">
-        <v>1</v>
-      </c>
-      <c r="W69" s="15">
-        <v>1</v>
-      </c>
+      <c r="W69" s="15"/>
       <c r="X69" s="17">
-        <f>SUM(C69:W69)</f>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Y69" s="18">
-        <f>SUM(C69:W69)</f>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z69" s="41">
-        <f>AB54-X69</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AA69" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB69" s="1"/>
-    </row>
-    <row r="70" spans="1:28">
-      <c r="A70" s="0">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A70">
         <v>16</v>
       </c>
       <c r="B70" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="H70" s="15">
-        <v>1</v>
-      </c>
-      <c r="K70" s="16">
-        <v>1</v>
-      </c>
-      <c r="T70" s="16">
-        <v>1</v>
-      </c>
-      <c r="W70" s="15">
-        <v>1</v>
-      </c>
+      <c r="W70" s="15"/>
       <c r="X70" s="17">
-        <f>SUM(C70:W70)</f>
-        <v>4</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
       <c r="Y70" s="18">
-        <f>SUM(C70:W70)</f>
-        <v>4</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="Z70" s="41">
-        <f>AB54-X70</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>4</v>
       </c>
       <c r="AA70" s="19">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AB70" s="1"/>
-    </row>
-    <row r="71" spans="1:28">
+        <f t="shared" si="15"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B71" s="25"/>
       <c r="C71" s="26" t="s">
         <v>78</v>
@@ -3626,22 +3070,22 @@
       <c r="U71" s="27"/>
       <c r="V71" s="27"/>
       <c r="W71" s="27"/>
-      <c r="X71" s="28" t="n">
+      <c r="X71" s="28">
         <f>SUM(X4:X70)</f>
-        <v>175.0</v>
-      </c>
-      <c r="Y71" s="29" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y71" s="29">
         <f>SUM(Y4:Y70)</f>
-        <v>175.0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B72" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C72" s="31" t="n">
+      <c r="C72" s="31">
         <f>SUM(X4:X19)</f>
-        <v>54.0</v>
+        <v>2</v>
       </c>
       <c r="D72" s="27"/>
       <c r="E72" s="27"/>
@@ -3664,15 +3108,14 @@
       <c r="V72" s="27"/>
       <c r="W72" s="27"/>
       <c r="X72" s="32"/>
-      <c r="Y72" s="16"/>
-    </row>
-    <row r="73" spans="1:28">
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B73" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="31" t="n">
+      <c r="C73" s="31">
         <f>SUM(X21:X36)</f>
-        <v>32.0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="27"/>
       <c r="E73" s="27"/>
@@ -3695,15 +3138,14 @@
       <c r="V73" s="27"/>
       <c r="W73" s="27"/>
       <c r="X73" s="32"/>
-      <c r="Y73" s="16"/>
-    </row>
-    <row r="74" spans="1:28">
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B74" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C74" s="31" t="n">
+      <c r="C74" s="31">
         <f>SUM(X38:X53)</f>
-        <v>31.0</v>
+        <v>2</v>
       </c>
       <c r="D74" s="27"/>
       <c r="E74" s="27"/>
@@ -3726,15 +3168,14 @@
       <c r="V74" s="27"/>
       <c r="W74" s="27"/>
       <c r="X74" s="32"/>
-      <c r="Y74" s="16"/>
-    </row>
-    <row r="75" spans="1:28">
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B75" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C75" s="33" t="n">
+      <c r="C75" s="33">
         <f>SUM(X55:X70)</f>
-        <v>58.0</v>
+        <v>1</v>
       </c>
       <c r="D75" s="27"/>
       <c r="E75" s="27"/>
@@ -3757,15 +3198,14 @@
       <c r="V75" s="27"/>
       <c r="W75" s="27"/>
       <c r="X75" s="32"/>
-      <c r="Y75" s="16"/>
-    </row>
-    <row r="76" spans="1:28">
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B76" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="35" t="n">
+      <c r="C76" s="35">
         <f>SUM(C72:C75)</f>
-        <v>175.0</v>
+        <v>6</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="27"/>
@@ -3788,9 +3228,8 @@
       <c r="V76" s="27"/>
       <c r="W76" s="27"/>
       <c r="X76" s="32"/>
-      <c r="Y76" s="16"/>
-    </row>
-    <row r="77" spans="1:28">
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C77" s="27"/>
       <c r="D77" s="27"/>
       <c r="E77" s="27"/>
@@ -3815,7 +3254,7 @@
       <c r="X77" s="28"/>
       <c r="Y77" s="27"/>
     </row>
-    <row r="78" spans="1:28">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C78" s="27"/>
       <c r="D78" s="27"/>
       <c r="E78" s="27"/>
@@ -3840,7 +3279,7 @@
       <c r="X78" s="28"/>
       <c r="Y78" s="27"/>
     </row>
-    <row r="79" spans="1:28">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C79" s="27"/>
       <c r="D79" s="27"/>
       <c r="E79" s="27"/>
@@ -3865,7 +3304,7 @@
       <c r="X79" s="28"/>
       <c r="Y79" s="27"/>
     </row>
-    <row r="80" spans="1:28">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C80" s="27"/>
       <c r="D80" s="27"/>
       <c r="E80" s="27"/>
@@ -3890,7 +3329,7 @@
       <c r="X80" s="28"/>
       <c r="Y80" s="27"/>
     </row>
-    <row r="81" spans="3:25">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="27"/>
       <c r="D81" s="27"/>
       <c r="E81" s="27"/>
@@ -3915,7 +3354,7 @@
       <c r="X81" s="28"/>
       <c r="Y81" s="27"/>
     </row>
-    <row r="82" spans="3:25">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="27"/>
       <c r="D82" s="27"/>
       <c r="E82" s="27"/>
@@ -3940,7 +3379,7 @@
       <c r="X82" s="28"/>
       <c r="Y82" s="27"/>
     </row>
-    <row r="83" spans="3:25">
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="27"/>
       <c r="D83" s="27"/>
       <c r="E83" s="27"/>
@@ -3965,7 +3404,7 @@
       <c r="X83" s="28"/>
       <c r="Y83" s="27"/>
     </row>
-    <row r="84" spans="3:25">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="27"/>
       <c r="D84" s="27"/>
       <c r="E84" s="27"/>
@@ -3990,7 +3429,7 @@
       <c r="X84" s="28"/>
       <c r="Y84" s="27"/>
     </row>
-    <row r="85" spans="3:25">
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="27"/>
       <c r="D85" s="27"/>
       <c r="E85" s="27"/>
@@ -4015,7 +3454,7 @@
       <c r="X85" s="28"/>
       <c r="Y85" s="27"/>
     </row>
-    <row r="86" spans="3:25">
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="27"/>
       <c r="D86" s="27"/>
       <c r="E86" s="27"/>
@@ -4040,7 +3479,7 @@
       <c r="X86" s="28"/>
       <c r="Y86" s="27"/>
     </row>
-    <row r="87" spans="3:25">
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="27"/>
       <c r="D87" s="27"/>
       <c r="E87" s="27"/>
@@ -4065,7 +3504,7 @@
       <c r="X87" s="28"/>
       <c r="Y87" s="27"/>
     </row>
-    <row r="88" spans="3:25">
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="27"/>
       <c r="D88" s="27"/>
       <c r="E88" s="27"/>
@@ -4090,7 +3529,7 @@
       <c r="X88" s="28"/>
       <c r="Y88" s="27"/>
     </row>
-    <row r="89" spans="3:25">
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="27"/>
       <c r="D89" s="27"/>
       <c r="E89" s="27"/>
@@ -4115,7 +3554,7 @@
       <c r="X89" s="28"/>
       <c r="Y89" s="27"/>
     </row>
-    <row r="90" spans="3:25">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="27"/>
       <c r="D90" s="27"/>
       <c r="E90" s="27"/>
@@ -4140,7 +3579,7 @@
       <c r="X90" s="28"/>
       <c r="Y90" s="27"/>
     </row>
-    <row r="91" spans="3:25">
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="27"/>
       <c r="D91" s="27"/>
       <c r="E91" s="27"/>
@@ -4165,7 +3604,7 @@
       <c r="X91" s="28"/>
       <c r="Y91" s="27"/>
     </row>
-    <row r="92" spans="3:25">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="27"/>
       <c r="D92" s="27"/>
       <c r="E92" s="27"/>
@@ -4190,7 +3629,7 @@
       <c r="X92" s="28"/>
       <c r="Y92" s="27"/>
     </row>
-    <row r="93" spans="3:25">
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="27"/>
       <c r="D93" s="27"/>
       <c r="E93" s="27"/>
@@ -4215,7 +3654,7 @@
       <c r="X93" s="28"/>
       <c r="Y93" s="27"/>
     </row>
-    <row r="94" spans="3:25">
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="27"/>
       <c r="D94" s="27"/>
       <c r="E94" s="27"/>
@@ -4240,7 +3679,7 @@
       <c r="X94" s="28"/>
       <c r="Y94" s="27"/>
     </row>
-    <row r="95" spans="3:25">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="27"/>
       <c r="D95" s="27"/>
       <c r="E95" s="27"/>
@@ -4265,7 +3704,7 @@
       <c r="X95" s="28"/>
       <c r="Y95" s="27"/>
     </row>
-    <row r="96" spans="3:25">
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="27"/>
       <c r="D96" s="27"/>
       <c r="E96" s="27"/>
@@ -4290,7 +3729,7 @@
       <c r="X96" s="28"/>
       <c r="Y96" s="27"/>
     </row>
-    <row r="97" spans="3:25">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="27"/>
       <c r="D97" s="27"/>
       <c r="E97" s="27"/>
@@ -4315,7 +3754,7 @@
       <c r="X97" s="28"/>
       <c r="Y97" s="27"/>
     </row>
-    <row r="98" spans="3:25">
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="27"/>
       <c r="D98" s="27"/>
       <c r="E98" s="27"/>
@@ -4340,7 +3779,7 @@
       <c r="X98" s="28"/>
       <c r="Y98" s="27"/>
     </row>
-    <row r="99" spans="3:25">
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="27"/>
       <c r="D99" s="27"/>
       <c r="E99" s="27"/>
@@ -4365,7 +3804,7 @@
       <c r="X99" s="28"/>
       <c r="Y99" s="27"/>
     </row>
-    <row r="100" spans="3:25">
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="27"/>
       <c r="D100" s="27"/>
       <c r="E100" s="27"/>
@@ -4390,7 +3829,7 @@
       <c r="X100" s="28"/>
       <c r="Y100" s="27"/>
     </row>
-    <row r="101" spans="3:25">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="27"/>
       <c r="D101" s="27"/>
       <c r="E101" s="27"/>
@@ -4415,7 +3854,7 @@
       <c r="X101" s="28"/>
       <c r="Y101" s="27"/>
     </row>
-    <row r="102" spans="3:25">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="27"/>
       <c r="D102" s="27"/>
       <c r="E102" s="27"/>
@@ -4440,7 +3879,7 @@
       <c r="X102" s="28"/>
       <c r="Y102" s="27"/>
     </row>
-    <row r="103" spans="3:25">
+    <row r="103" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C103" s="27"/>
       <c r="D103" s="27"/>
       <c r="E103" s="27"/>
@@ -4465,7 +3904,7 @@
       <c r="X103" s="28"/>
       <c r="Y103" s="27"/>
     </row>
-    <row r="104" spans="3:25">
+    <row r="104" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C104" s="27"/>
       <c r="D104" s="27"/>
       <c r="E104" s="27"/>
@@ -4490,7 +3929,7 @@
       <c r="X104" s="28"/>
       <c r="Y104" s="27"/>
     </row>
-    <row r="105" spans="3:25">
+    <row r="105" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C105" s="27"/>
       <c r="D105" s="27"/>
       <c r="E105" s="27"/>
@@ -4515,7 +3954,7 @@
       <c r="X105" s="28"/>
       <c r="Y105" s="27"/>
     </row>
-    <row r="106" spans="3:25">
+    <row r="106" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C106" s="27"/>
       <c r="D106" s="27"/>
       <c r="E106" s="27"/>
@@ -4540,7 +3979,7 @@
       <c r="X106" s="28"/>
       <c r="Y106" s="27"/>
     </row>
-    <row r="107" spans="3:25">
+    <row r="107" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C107" s="27"/>
       <c r="D107" s="27"/>
       <c r="E107" s="27"/>
@@ -4565,7 +4004,7 @@
       <c r="X107" s="28"/>
       <c r="Y107" s="27"/>
     </row>
-    <row r="108" spans="3:25">
+    <row r="108" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C108" s="27"/>
       <c r="D108" s="27"/>
       <c r="E108" s="27"/>
@@ -4590,7 +4029,7 @@
       <c r="X108" s="28"/>
       <c r="Y108" s="27"/>
     </row>
-    <row r="109" spans="3:25">
+    <row r="109" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C109" s="27"/>
       <c r="D109" s="27"/>
       <c r="E109" s="27"/>
@@ -4615,7 +4054,7 @@
       <c r="X109" s="28"/>
       <c r="Y109" s="27"/>
     </row>
-    <row r="110" spans="3:25">
+    <row r="110" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C110" s="27"/>
       <c r="D110" s="27"/>
       <c r="E110" s="27"/>
@@ -4640,7 +4079,7 @@
       <c r="X110" s="28"/>
       <c r="Y110" s="27"/>
     </row>
-    <row r="111" spans="3:25">
+    <row r="111" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C111" s="27"/>
       <c r="D111" s="27"/>
       <c r="E111" s="27"/>
@@ -4665,7 +4104,7 @@
       <c r="X111" s="28"/>
       <c r="Y111" s="27"/>
     </row>
-    <row r="112" spans="3:25">
+    <row r="112" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C112" s="27"/>
       <c r="D112" s="27"/>
       <c r="E112" s="27"/>
@@ -4690,7 +4129,7 @@
       <c r="X112" s="28"/>
       <c r="Y112" s="27"/>
     </row>
-    <row r="113" spans="3:25">
+    <row r="113" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C113" s="27"/>
       <c r="D113" s="27"/>
       <c r="E113" s="27"/>
@@ -4715,7 +4154,7 @@
       <c r="X113" s="28"/>
       <c r="Y113" s="27"/>
     </row>
-    <row r="114" spans="3:25">
+    <row r="114" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C114" s="27"/>
       <c r="D114" s="27"/>
       <c r="E114" s="27"/>
@@ -4740,7 +4179,7 @@
       <c r="X114" s="28"/>
       <c r="Y114" s="27"/>
     </row>
-    <row r="115" spans="3:25">
+    <row r="115" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C115" s="27"/>
       <c r="D115" s="27"/>
       <c r="E115" s="27"/>
@@ -4765,7 +4204,7 @@
       <c r="X115" s="28"/>
       <c r="Y115" s="27"/>
     </row>
-    <row r="116" spans="3:25">
+    <row r="116" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C116" s="27"/>
       <c r="D116" s="27"/>
       <c r="E116" s="27"/>
@@ -4790,7 +4229,7 @@
       <c r="X116" s="28"/>
       <c r="Y116" s="27"/>
     </row>
-    <row r="117" spans="3:25">
+    <row r="117" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C117" s="27"/>
       <c r="D117" s="27"/>
       <c r="E117" s="27"/>
@@ -4815,7 +4254,7 @@
       <c r="X117" s="28"/>
       <c r="Y117" s="27"/>
     </row>
-    <row r="118" spans="3:25">
+    <row r="118" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C118" s="27"/>
       <c r="D118" s="27"/>
       <c r="E118" s="27"/>
@@ -4840,7 +4279,7 @@
       <c r="X118" s="28"/>
       <c r="Y118" s="27"/>
     </row>
-    <row r="119" spans="3:25">
+    <row r="119" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C119" s="27"/>
       <c r="D119" s="27"/>
       <c r="E119" s="27"/>
@@ -4865,7 +4304,7 @@
       <c r="X119" s="28"/>
       <c r="Y119" s="27"/>
     </row>
-    <row r="120" spans="3:25">
+    <row r="120" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C120" s="27"/>
       <c r="D120" s="27"/>
       <c r="E120" s="27"/>
@@ -4890,7 +4329,7 @@
       <c r="X120" s="28"/>
       <c r="Y120" s="27"/>
     </row>
-    <row r="121" spans="3:25">
+    <row r="121" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C121" s="27"/>
       <c r="D121" s="27"/>
       <c r="E121" s="27"/>
@@ -4915,7 +4354,7 @@
       <c r="X121" s="28"/>
       <c r="Y121" s="27"/>
     </row>
-    <row r="122" spans="3:25">
+    <row r="122" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C122" s="36"/>
       <c r="D122" s="36"/>
       <c r="E122" s="36"/>
@@ -4940,85 +4379,85 @@
       <c r="X122" s="37"/>
       <c r="Y122" s="36"/>
     </row>
-    <row r="123" spans="3:25">
+    <row r="123" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C123" s="16"/>
       <c r="H123" s="16"/>
       <c r="M123" s="16"/>
       <c r="R123" s="16"/>
     </row>
-    <row r="124" spans="3:25">
+    <row r="124" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C124" s="16"/>
       <c r="H124" s="16"/>
       <c r="M124" s="16"/>
       <c r="R124" s="16"/>
     </row>
-    <row r="125" spans="3:25">
+    <row r="125" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C125" s="16"/>
       <c r="H125" s="16"/>
       <c r="M125" s="16"/>
       <c r="R125" s="16"/>
     </row>
-    <row r="126" spans="3:25">
+    <row r="126" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C126" s="16"/>
       <c r="H126" s="16"/>
       <c r="M126" s="16"/>
       <c r="R126" s="16"/>
     </row>
-    <row r="127" spans="3:25">
+    <row r="127" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C127" s="16"/>
       <c r="H127" s="16"/>
       <c r="M127" s="16"/>
       <c r="R127" s="16"/>
     </row>
-    <row r="128" spans="3:25">
+    <row r="128" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C128" s="16"/>
       <c r="H128" s="16"/>
       <c r="M128" s="16"/>
       <c r="R128" s="16"/>
     </row>
-    <row r="129" spans="3:18">
+    <row r="129" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C129" s="16"/>
       <c r="H129" s="16"/>
       <c r="M129" s="16"/>
       <c r="R129" s="16"/>
     </row>
-    <row r="130" spans="3:18">
+    <row r="130" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C130" s="16"/>
       <c r="H130" s="16"/>
       <c r="M130" s="16"/>
       <c r="R130" s="16"/>
     </row>
-    <row r="131" spans="3:18">
+    <row r="131" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C131" s="16"/>
       <c r="H131" s="16"/>
       <c r="M131" s="16"/>
       <c r="R131" s="16"/>
     </row>
-    <row r="132" spans="3:18">
+    <row r="132" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C132" s="16"/>
       <c r="H132" s="16"/>
       <c r="M132" s="16"/>
       <c r="R132" s="16"/>
     </row>
-    <row r="133" spans="3:18">
+    <row r="133" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C133" s="16"/>
       <c r="H133" s="16"/>
       <c r="M133" s="16"/>
       <c r="R133" s="16"/>
     </row>
-    <row r="134" spans="3:18">
+    <row r="134" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C134" s="16"/>
       <c r="H134" s="16"/>
       <c r="M134" s="16"/>
       <c r="R134" s="16"/>
     </row>
-    <row r="135" spans="3:18">
+    <row r="135" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C135" s="16"/>
       <c r="H135" s="16"/>
       <c r="M135" s="16"/>
       <c r="R135" s="16"/>
     </row>
-    <row r="136" spans="3:18">
+    <row r="136" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C136" s="16"/>
       <c r="H136" s="16"/>
       <c r="M136" s="16"/>
